--- a/extracted_data/all_html_data.xlsx
+++ b/extracted_data/all_html_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW7"/>
+  <dimension ref="A1:BW8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1827,82 +1827,58 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[{'Date': '1.2.2020', 'Country': 'Czech republic', 'Name_of_place_of_premiere': 'KVIFF'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[{'Date': '1.2.2020', 'Country': 'Czech republic', 'Name_of_Festival': 'KVIFF'}, {'Date': '15.3.2020', 'Country': 'Germany', 'Name_of_Festival': 'Skopčák fest'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[{'Date': '22.3.2021', 'Country': 'Czech republic', 'Festival_Section_of_Competition': 'Czech lion - best movie'}, {'Date': '12.12.2021', 'Country': 'Poland', 'Festival_Section_of_Competition': 'Cinerama - best camera'}]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum L.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem.</t>
-        </is>
-      </c>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)']</t>
+          <t>['Time Metallurgist (2024)', 'Místo (2020)', 'Vyčerpané Slunce [Exhausted sun] (2019)']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TEST_FILM.html</t>
+          <t>SnowBlind.html</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TEST: vymyšlenej film</t>
+          <t>SnowBlind</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>TEST: fiction movie</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>테스트: 허구 영화</t>
-        </is>
-      </c>
+          <t>SnowBlind</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Czech</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>english, korean</t>
-        </is>
-      </c>
+          <t>unintelligible language</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.1.2020</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>02:10:23</t>
+          <t>00:08:53</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -1915,199 +1891,380 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>['action', 'sci-fi']</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>steampunk</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>LGBT, animal</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>youth</t>
-        </is>
-      </c>
+          <t>['experimental']</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Někdo někdo</t>
+          <t>Tomáš Rampula</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Někdo někdo</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Někdo někdo</t>
-        </is>
-      </c>
+          <t>Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Někdo někdo, Někdo někdo</t>
+          <t>Tomáš Rampula</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Někdo někdo</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>Někdo někdo</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>Někdo někdo</t>
-        </is>
-      </c>
+          <t>Alex Strapkova, Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>['Někdo někdo', 'Někdo někdo', 'Někdo někdo', 'Někdo někdo']</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>1.2.1920</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lore. Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lore. Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lore.</t>
-        </is>
-      </c>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>DSLR/DSLM</t>
-        </is>
-      </c>
+      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>Sony FX3</t>
-        </is>
-      </c>
+      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>3D computer</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>Blackmagic Da Vinci Resolve 20</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>ProTool 11</t>
-        </is>
-      </c>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>DCP</t>
-        </is>
-      </c>
+      <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>2K</t>
-        </is>
-      </c>
+      <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>2.39 / 2.40 (modern "scope")</t>
-        </is>
-      </c>
+      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
-        </is>
-      </c>
+      <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>Colour</t>
-        </is>
-      </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>Všechno cajk :)</t>
-        </is>
-      </c>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>Někdo Inc.</t>
-        </is>
-      </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>DJKjldjfdsf</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>djkfaj</t>
-        </is>
-      </c>
-      <c r="BL7" t="inlineStr">
-        <is>
-          <t>dkfj ka</t>
-        </is>
-      </c>
-      <c r="BM7" t="inlineStr">
-        <is>
-          <t>dfakfjal</t>
-        </is>
-      </c>
-      <c r="BN7" t="inlineStr"/>
+          <t>Black &amp; White</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>Ochi&amp;Ushi</t>
+        </is>
+      </c>
       <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr">
-        <is>
-          <t>100 00, Prague</t>
-        </is>
-      </c>
+      <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="inlineStr">
+      <c r="BW7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[{'Date': '1.2.2020', 'Country': 'Czech republic', 'Name_of_place_of_premiere': 'KVIFF'}]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[{'Date': '1.2.2020', 'Country': 'Czech republic', 'Name_of_Festival': 'KVIFF'}, {'Date': '15.3.2020', 'Country': 'Germany', 'Name_of_Festival': 'Skopčák fest'}]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[{'Date': '22.3.2021', 'Country': 'Czech republic', 'Festival_Section_of_Competition': 'Czech lion - best movie'}, {'Date': '12.12.2021', 'Country': 'Poland', 'Festival_Section_of_Competition': 'Cinerama - best camera'}]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum L.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TEST_FILM.html</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TEST: vymyšlenej film</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>TEST: fiction movie</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>테스트: 허구 영화</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Czech</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>english, korean</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.1.2020</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>02:10:23</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>['action', 'sci-fi']</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>steampunk</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>LGBT, animal</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>youth</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Někdo někdo</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Někdo někdo</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Někdo někdo</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Někdo někdo, Někdo někdo</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Někdo někdo</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Někdo někdo</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Někdo někdo</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>['Někdo někdo', 'Někdo někdo', 'Někdo někdo', 'Někdo někdo']</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>1.2.1920</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lore. Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lore. Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lore.</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>DSLR/DSLM</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>Sony FX3</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>3D computer</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>Blackmagic Da Vinci Resolve 20</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ProTool 11</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>2K</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>2.39 / 2.40 (modern "scope")</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>Všechno cajk :)</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>Někdo Inc.</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>DJKjldjfdsf</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>djkfaj</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>dkfj ka</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>dfakfjal</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>100 00, Prague</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr">
         <is>
           <t>cinefila.cz</t>
         </is>

--- a/extracted_data/all_html_data.xlsx
+++ b/extracted_data/all_html_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW8"/>
+  <dimension ref="A1:BW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,295 +1981,6 @@
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[{'Date': '1.2.2020', 'Country': 'Czech republic', 'Name_of_place_of_premiere': 'KVIFF'}]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[{'Date': '1.2.2020', 'Country': 'Czech republic', 'Name_of_Festival': 'KVIFF'}, {'Date': '15.3.2020', 'Country': 'Germany', 'Name_of_Festival': 'Skopčák fest'}]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[{'Date': '22.3.2021', 'Country': 'Czech republic', 'Festival_Section_of_Competition': 'Czech lion - best movie'}, {'Date': '12.12.2021', 'Country': 'Poland', 'Festival_Section_of_Competition': 'Cinerama - best camera'}]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum L.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)', 'Něco něco (1950)']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>TEST_FILM.html</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>TEST: vymyšlenej film</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TEST: fiction movie</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>테스트: 허구 영화</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Czech</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>english, korean</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.1.2020</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>02:10:23</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>['action', 'sci-fi']</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>steampunk</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>LGBT, animal</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>youth</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Někdo někdo</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>Někdo někdo</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Někdo někdo</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Někdo někdo, Někdo někdo</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>Někdo někdo</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>Někdo někdo</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>Někdo někdo</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>['Někdo někdo', 'Někdo někdo', 'Někdo někdo', 'Někdo někdo']</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>1.2.1920</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lore. Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lore. Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lorem ipsum Lore.</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>DSLR/DSLM</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>Sony FX3</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>3D computer</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>Blackmagic Da Vinci Resolve 20</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>ProTool 11</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>DCP</t>
-        </is>
-      </c>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>2K</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr">
-        <is>
-          <t>2.39 / 2.40 (modern "scope")</t>
-        </is>
-      </c>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
-        </is>
-      </c>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>Colour</t>
-        </is>
-      </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>Všechno cajk :)</t>
-        </is>
-      </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>Někdo Inc.</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>DJKjldjfdsf</t>
-        </is>
-      </c>
-      <c r="BK8" t="inlineStr">
-        <is>
-          <t>djkfaj</t>
-        </is>
-      </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>dkfj ka</t>
-        </is>
-      </c>
-      <c r="BM8" t="inlineStr">
-        <is>
-          <t>dfakfjal</t>
-        </is>
-      </c>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr">
-        <is>
-          <t>100 00, Prague</t>
-        </is>
-      </c>
-      <c r="BQ8" t="inlineStr"/>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr">
-        <is>
-          <t>cinefila.cz</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/extracted_data/all_html_data.xlsx
+++ b/extracted_data/all_html_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW7"/>
+  <dimension ref="A1:BW13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,25 +818,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[{'Date': 'September 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[{'Date': '2024', 'Country': 'USA', 'Festival_Section_of_Competition': 'Student Academy Awards - Golden Medal'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>On New Year's Eve 1944, two Sudeten men—one a widower, the other an SS officer—confront a shared past in a snowbound cottage cut off from the world.</t>
+          <t>An imaginative and playful collage of images from the life of cows.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>On New Year’s Eve 1944, widower Petr Bernat and SS officer Konrad Neumann meet in a remote cottage during a snowstorm. United only by their Sudeten origins, their conversation shifts from trivial topics to painful truths, leading to a fateful night for both men.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>A mosaic of small stories from all over the world, in which cows experience positive and negative moments, depicts the life of an animal in a global world and its relationship with humans. The visually colourful images portray the cow as a sensitive creature worthy of admiration.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>With my film I want to make a positive contribution to the current situation. I would like the film to be an impulse to reflect on the life of an animal - in this case a cow - to draw attention to the need to see each creature as a complex, living being, not just as part of our human economic industry. I work freely with facts. I collected these for about a year and a half from the media, books and narratives, gathering a lot of bizarre, common or biological facts about cows.</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>[]</t>
@@ -844,39 +848,39 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Compatriot.html</t>
+          <t>about_cow.html</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Krajan</t>
+          <t>O krávě</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>The Compatriot</t>
+          <t>About a cow</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Czech, German</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>English, Czech</t>
-        </is>
-      </c>
+          <t>without dialogues</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>01.01.2023</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>00:24:34</t>
+          <t>00:12:52</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
@@ -889,20 +893,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>['psychological', 'drama', 'historical', 'war']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>WWII, second world war, Sudeten</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
           <t>general audience</t>
@@ -911,38 +907,38 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Viktor Horák, Pavel Sýkora</t>
+          <t>Pavla Baštanová</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Petr Pelech, Pavel Sýkora</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Pavel Sýkora</t>
-        </is>
-      </c>
+          <t>Eva Prchalová</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Lukáš Skalník</t>
+          <t>Jan Daňhel</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Yurii Fenynets</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr"/>
+          <t>Peter Bräker</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Pavla Baštanová</t>
+        </is>
+      </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Jakub Zajíc</t>
+          <t>Peter Bräker</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>['Jiří Štěpnička', 'Pavel Batěk', 'Martin Hlubocký']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr"/>
@@ -956,7 +952,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -968,12 +968,28 @@
         </is>
       </c>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>2K</t>
+        </is>
+      </c>
       <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>1.85 ("flat format")</t>
+        </is>
+      </c>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr">
         <is>
@@ -989,49 +1005,45 @@
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>FAMO</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>Lipová alej 2068</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>397 01 Písek</t>
-        </is>
-      </c>
+          <t>Mária Môťovská, MAUR film</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>www.filmovka.cz</t>
-        </is>
-      </c>
+      <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>Sereina Gabathuler, Dschoint Ventschr Filmproduktion,</t>
+        </is>
+      </c>
       <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
       <c r="BW2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[{'Date': '1. 4. 2025', 'Country': 'Argentina', 'Name_of_place_of_premiere': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm (czech and world premiere)'}]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[{'Date': '1. 4. 2025', 'Country': 'Argentina', 'Name_of_Festival': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}, {'Date': 'June 2025', 'Country': 'France', 'Name_of_Festival': 'Annecy Festival'}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1041,59 +1053,63 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>In a world ruled by a mysterious telephone, power shifts from a distant force to the people themselves—revealing how the oppressed become oppressors.</t>
+          <t>A giant beetroot goes on a rampage in this wild Slavic kaiju tale mixing live action, stop-motion, and 2D animation.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>On a late night in a run-down office, a group of workers find themselves stuck to the ceiling by their hats. Blindly carrying out their tasks, they are oblivious to the absurdity of their situation. When an old telephone rings, they begin to disappear one by one. A worker named Hatker dares to confront the reality, ultimately turning the Kafkaesque</t>
+          <t>Inspired by the traditional Slavic folktale “The Enormous Turnip,” a beetroot grows so huge that no one can pull it from the ground. When a local crane operator is hired to do the job, the giant vegetable turns violent and destructive. As chaos unfolds, an army is mobilized to stop it — but maybe there’s another way to appease this monstrous force.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hatker explores the theme of power, symbolized by a telephone dictating behavior from afar. As the story unfolds, power proves decentralized—internalized and reproduced by individuals themselves. Inspired by my own experience in a corporate office, the film uses the metaphor of “hats” to represent the roles we adopt until the protagonist chooses to break free by taking his off.</t>
+          <t>Beetroot is a collaboration between two directors from FAMU and UMPRUM, blending distinct authorial styles. Inspired by the classic Czech tale The Big Beetroot, we reimagine the beet as an uncontrollable force, merging fairy tale with the Japanese Kaiju genre. As the beet grows, so do the problems—nature's power takes monstrous form.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Epirenov (2020)', 'Hatker (2025)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hatker.html</t>
+          <t>beetroot.html</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Hatker</t>
+          <t>Řepa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hatker</t>
+          <t>The Beetroot</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>no dialogue</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+          <t>Czech</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>February 2025</t>
+          <t>05.01.2025</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>00:07:33</t>
+          <t>00:12:56</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -1106,51 +1122,55 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>['animation', 'absurd', 'mystery']</t>
+          <t>['animation', 'fairytale', 'sci-fi']</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>hat, power</t>
+          <t>beetroot, fairytale, kaiju, enviroment</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin</t>
+          <t>Jáchym Štulíř, David Šourek</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
+          <t>Jáchym Štulíř, David Šourek</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin</t>
+          <t>David Šourek</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin</t>
+          <t>Ondřej Plecháč</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Santiago Zecca</t>
+          <t>Juras Karaka</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Carolina Cairo, Alejandro Ariel Martin</t>
+          <t>Jáchym Štulíř</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Hermes Scipioni</t>
+          <t>Juras Karaka</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1159,18 +1179,9 @@
         </is>
       </c>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>Alejandro Ariel Martin is an Argentinian Film Director. He has a degree in Social Communication from the UNR and a postgraduate degree in Creative Communication from the Autonomous University of Barcelona.
-He is the director and scriptwriter of the short film “Epirenov” (2020). Epirenov has participated in 93 international festivals and has obtained 22 awards.</t>
-        </is>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>DSLR/DSLM</t>
-        </is>
-      </c>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
@@ -1180,10 +1191,14 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>stop-motion</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr"/>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>mixing live action</t>
+        </is>
+      </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
@@ -1193,23 +1208,31 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>ProRes, h264</t>
+        </is>
+      </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>4k</t>
+          <t>2K</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>1.85 ("flat format")</t>
+          <t>1.33 (4:3)</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr"/>
@@ -1227,23 +1250,79 @@
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
+          <t>FAMU</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>Smetanovo nábřeží 2</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>116 65 Prague 1</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>famu.cz</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>UMPRUM - Michaela Režová</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>nám. J. Palacha 80/3</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>116 93 Prague 1</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>umprum.cz</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>Altum Frames - Hynek Spurný</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>Záhořanského 1944/4</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>120 00 Prague 2</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>altumframes.com</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1253,52 +1332,56 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'Uppsala International Short Film Festival'}, {'Date': '', 'Country': 'Belgium', 'Name_of_Festival': 'Anima - the Brussels Animation Film Festival'}, {'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}]</t>
+          <t>[{'Date': 'September 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+          <t>[{'Date': '2024', 'Country': 'USA', 'Festival_Section_of_Competition': 'Student Academy Awards - Golden Medal'}]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Can hedgehog swim?</t>
+          <t>On New Year's Eve 1944, two Sudeten men—one a widower, the other an SS officer—confront a shared past in a snowbound cottage cut off from the world.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Slightly moralising pun, filmed with pleasant exaggeration and a sense of animation shorthand. A child's imagination knows no bounds, and anyone who gets too carried away, whether drawing or just looking at a picture, can end up getting really wet. A hedgehog like that doesn't seem to be a very good swimmer, but he's all the more powerful.</t>
+          <t>On New Year’s Eve 1944, widower Petr Bernat and SS officer Konrad Neumann meet in a remote cottage during a snowstorm. United only by their Sudeten origins, their conversation shifts from trivial topics to painful truths, leading to a fateful night for both men.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Misophonia Orchestra (2022)', 'Kuku [Cuckoo](2020)', 'Medvědění [Bearing] (2018)', 'Závodní horečka [Racing Fever] (2017)', 'Nezbeda (2015)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hedgehog.html</t>
+          <t>compatriot.html</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Ježek</t>
+          <t>Krajan</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>The Hedgehog</t>
+          <t>The Compatriot</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>no dialogue</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
+          <t>Czech, German</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>English, Czech</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Czech Republic</t>
@@ -1306,12 +1389,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>February 2023</t>
+          <t>01.01.2023</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:24:34</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -1324,52 +1407,64 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>['animation', 'children', 'comedy']</t>
+          <t>['psychological', 'drama', 'historical', 'war']</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>hedgehog, swimming pool, child's imagination</t>
+          <t>WWII, second world war, Sudeten</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>3+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>general audience</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová</t>
+          <t>Viktor Horák, Pavel Sýkora</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+          <t>Petr Pelech, Pavel Sýkora</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Pavel Sýkora</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Lukáš Skalník</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Yurii Fenynets</t>
+        </is>
+      </c>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Jakub Zajíc</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Jiří Štěpnička', 'Pavel Batěk', 'Martin Hlubocký']</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>Daniela Hýbnerová graduated from the Animation Department at FAMU in Prague. Her short animated film The One About the Shirt won 2nd place in the international round of the Nespresso Talents 2020 competition. Daniela is a fan of Formula 1 racing, film music and the world of Harry Potter.</t>
-        </is>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
@@ -1379,26 +1474,42 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>2D computer</t>
-        </is>
-      </c>
+      <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
       <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr">
         <is>
@@ -1406,11 +1517,31 @@
         </is>
       </c>
       <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>FAMO</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>Lipová alej 2068</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>397 01 Písek</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>www.filmovka.cz</t>
+        </is>
+      </c>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
@@ -1430,7 +1561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'May 2025', 'Country': 'Germany', 'Name_of_Festival': 'Neisse Film Festival'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1440,48 +1571,48 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>An auteur short animated documentary exploring the inner feelings of home. What does home mean to each of us?</t>
+          <t>Two small-town policemen are first on the scene of a mass shooting — and must act fast with hostages still inside.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>An auteur film on the theme of inner feelings of home. What is home for each of us? Where is this place located? What is it connected to? Is home a specific place, or is home within us? A journey around the world in search of that "home" - the place where you feel you belong. Where you are safe and among your own.</t>
+          <t>A routine day for two small-town policemen, young Pavel and experienced Michal, is turned upside down when they become the first patrol to arrive at the scene of a mass shooting at a restaurant with hostages still inside.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>I really liked studying and living in the Czech Republic, but throughout my studies I kept thinking about my home, about my family that I left behind in Belarus. Being a foreigner was not as easy as I thought. I had to go through many hardships, but the hardest was homesickness and family. This feeling tormented me, the thoughts didn't want to leave my head and I decided to release these emotions in my work.</t>
+          <t>I drew inspiration for First Patrol from a 2015 tragedy in the South Moravian town of Uherský Brod, Czech Republic – the country’s first mass shooting. The title reflects both the officers’ arrival as the first patrol and Czech society’s first encounter with such violence. My intention was never a reconstruction, but a fictional immersive journey that places us in the patrol car and uniform of the first responders, who are both the earliest witnesses to such horrors and, above all, human beings.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Jak vám mohu pomoci? [How can I help you?] (2022) - one episode from the eight-part Czech television animated series']</t>
+          <t>['• První hlídka / First Patrol (2025), 18 mins, police drama', '• Návštěvník / Visitor (2025), 20 mins, mysterious drama with horror elements', '• Cirkus / Cirque (2025), 5 mins, drama, 35mm colour film', '• Na kopci / On That Hill (2024), 3 mins, documentary portrait, 35mm black&amp;white film', '• Doprovázení / It Can Be Any Day (2023), 28 mins, family drama', 'Finalist for the Magnesia Award for Best Student Film of 2023', '• Růžička ve tmě / Rose in the Dark (2022), 10 mins, psychological drama, thriller', 'Panorama EnergaCAMERIMAGE 2022', '• Sen / Dream (2022), 5 mins, parable, 16mm colour film', '• 2-3 minuty / Two to Three Minutes (2021), 11 mins, drama', '• Konstruktér / The Constructor (2020), 8 mins, documentary portrait', '• Vyhnání / Expulsion (2019), 10 mins, historical drama, 16mm colour film', '• Kosmonaut / Cosmonaut (2019), 7 mins, children drama']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Home.html</t>
+          <t>first_patrol.html</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Domov</t>
+          <t>První hlídka</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>First patrol</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Belarussian</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>English, Czech</t>
+          <t>English</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1491,12 +1622,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Februrary 2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>00:05:45</t>
+          <t>00:18:12</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -1509,121 +1640,189 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>['animation', 'documentary', 'experimental']</t>
+          <t>['drama', 'crime', 'psychological']</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>home, home sick, lyrical</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>general audience</t>
-        </is>
-      </c>
+          <t>first responders, police work, mass shooting, true crime</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Anastasiya Skarko</t>
+          <t>Vojtěch Konečný</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Anastasiya Skarko</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+          <t>Jan Dvořáček, Vojtěch Konečný</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Filip Hájek</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Enis Saraçi</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Miroslav Chaloupka</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr"/>
+          <t>Jan Strnad</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Anna Machátová</t>
+        </is>
+      </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Yaraslau Dubashynski</t>
+          <t>Tomáš Borl</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['František Beleš', 'Pavel Řezníček']</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>05.09.1998</t>
+          <t>03.07.1995</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>Anastasiya was born in Minsk, Belarus. Since 2018, she has worked as an art editor at the magazine of satire and humor "Vozhik". In 2020-2024 she studied animation at the Ladislav Sutnar Faculty of Design and Art at the University of West Bohemia in Pilsen.</t>
+          <t>Vojtěch Konečný is a Czech writer-director. He is finishing the MA film directing course at FAMU. He graduated from University of the Arts London, BA (Hons) Film and TV course. He is one of the founders of the film production company nukleon frame. His short film Rose in the Dark (2022) premiered at the 30th EnergaCAMERIMAGE IFF in Poland and his short movie It Can Be Any Day (2023) was the finalist for Magnesia Award at the film awards Czech Lions for Best Student Film of 2023.</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>Sony Venice, lenses: PANAVISION G SERIES ANAMORPHICS</t>
+        </is>
+      </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>Adobe Premiere Pro</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Protools</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>ProRes</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
       <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>1.78 (16:9)</t>
-        </is>
-      </c>
-      <c r="BD5" t="inlineStr"/>
+          <t>2.00 (Netflix, Apple TV+, RED, Arri...)</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>DCP is S-200 (scope 2:1)</t>
+        </is>
+      </c>
       <c r="BE5" t="inlineStr">
         <is>
           <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>or stereo for screeners</t>
+        </is>
+      </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>Black &amp; White</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>University of West Bohemia</t>
+          <t>Adéla Konečná</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>nukleon frame</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>Davidkova 29</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>180 00, Prague 8</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>https://nukleonframe.cz/en/</t>
+        </is>
+      </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>MAUR FILM</t>
+          <t>FAMU, Czech Television, Lonely Production</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr"/>
@@ -1634,7 +1833,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+          <t>[{'Date': '1.4.2025', 'Country': 'Argentina', 'Name_of_place_of_premiere': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1647,49 +1846,65 @@
           <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>In a world ruled by a mysterious telephone, power shifts from a distant force to the people themselves—revealing how the oppressed become oppressors.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Late at night in a shabby office, workers are stuck to the ceiling by their hats, blindly doing their jobs. Oblivious to the absurdity, they vanish one by one when an old phone rings. Only Hatker dares to face reality — turning their Kafkaesque world upside down.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hatker explores the theme of power, symbolized by a telephone dictating behavior from afar. As the story unfolds, power proves decentralized—internalized and reproduced by individuals themselves. Inspired by my own experience in a corporate office, the film uses the metaphor of “hats” to represent the roles we adopt until the protagonist chooses to break free by taking his off.</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Epirenov, 2020', 'Hatker, 2025']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Return.html</t>
+          <t>hatker.html</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Návrat</t>
+          <t>Hatker</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Return</t>
+          <t>Hatker</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Czech</t>
+          <t>Without dialogue</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>00:24:48</t>
+          <t>00:07:33</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -1702,70 +1917,67 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>['drama', 'psychological']</t>
+          <t>['animation', 'absurd']</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>local politician, bad day, woman in distress</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
+          <t>hat, power, telephone, office, control, work, Kafka</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek</t>
+          <t>Alejandro Ariel Martin</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek</t>
+          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Marcela Mencelová, Vojtěch Adalbert Dvořák</t>
+          <t>Alejandro Ariel Martin</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Adéla Kelbichová</t>
+          <t>Alejandro Ariel Martin</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Jakub Jedlička</t>
+          <t>Santiago Zecca</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Václav Chalupský</t>
+          <t>Hermes Scipioni</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>['Alena Štréblová: Tricia', 'Alžběta Nováková: Laura', 'Jindřiška Dudziaková: Veronika', 'Jakub Jelínek: Marek', 'Mikuláš Čížek: Andrej']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek studies at the Department of Screenwriting and Dramaturgy at FAMU. He is involved in both scriptwriting, dramaturgy and directing as well. He has collaborated on several student films in the past.</t>
+          <t>Alejandro Ariel Martin is an Argentinian Film Director. He has a degree in Social Communication from the UNR and a postgraduate degree in Creative Communication from the Autonomous University of Barcelona.
+He is the director and scriptwriter of the short film “Epirenov” (2020) and “Hatker” (2025).</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>DSLR/DSLM</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
@@ -1773,22 +1985,46 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>puppet</t>
+        </is>
+      </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
       <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>1.85 ("flat format")</t>
+        </is>
+      </c>
       <c r="BD6" t="inlineStr"/>
-      <c r="BE6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="inlineStr">
         <is>
@@ -1798,27 +2034,19 @@
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>Barbora Podškubková</t>
+          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>FAMU</t>
-        </is>
-      </c>
+      <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>Česká televize</t>
-        </is>
-      </c>
+      <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
@@ -1832,7 +2060,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+          <t>[{'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'Uppsala International Short Film Festival'}, {'Date': '', 'Country': 'Belgium', 'Name_of_Festival': 'Anima - the Brussels Animation Film Festival'}, {'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1840,33 +2068,41 @@
           <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Can hedgehog swim?</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Slightly moralising pun, filmed with pleasant exaggeration and a sense of animation shorthand. A child's imagination knows no bounds, and anyone who gets too carried away, whether drawing or just looking at a picture, can end up getting really wet. A hedgehog like that doesn't seem to be a very good swimmer, but he's all the more powerful.</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Time Metallurgist (2024)', 'Místo (2020)', 'Vyčerpané Slunce [Exhausted sun] (2019)']</t>
+          <t>['Misophonia Orchestra (2022)', 'Kuku [Cuckoo](2020)', 'Medvědění [Bearing] (2018)', 'Závodní horečka [Racing Fever] (2017)', 'Nezbeda (2015)']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>SnowBlind.html</t>
+          <t>hedgehog.html</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SnowBlind</t>
+          <t>Ježek</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>SnowBlind</t>
+          <t>The Hedgehog</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>unintelligible language</t>
+          <t>no dialogue</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
@@ -1875,10 +2111,14 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>February 2023</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>00:08:53</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -1891,36 +2131,44 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>['experimental']</t>
+          <t>['animation', 'children', 'comedy']</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>hedgehog, swimming pool, child's imagination</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>3+</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Tomáš Rampula</t>
+          <t>Daniela Hýbnerová</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Tomáš Rampula</t>
+          <t>Daniela Hýbnerová</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>Tomáš Rampula</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>Alex Strapkova, Tomáš Rampula</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Daniela Hýbnerová</t>
+        </is>
+      </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr">
         <is>
@@ -1928,7 +2176,11 @@
         </is>
       </c>
       <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Daniela Hýbnerová graduated from the Animation Department at FAMU in Prague. Her short animated film The One About the Shirt won 2nd place in the international round of the Nespresso Talents 2020 competition. Daniela is a fan of Formula 1 racing, film music and the world of Harry Potter.</t>
+        </is>
+      </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
@@ -1938,26 +2190,54 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Prores, H264</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>HD: 1920X1080</t>
+        </is>
+      </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
       <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>Black &amp; White</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr"/>
@@ -1966,11 +2246,7 @@
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr">
-        <is>
-          <t>Ochi&amp;Ushi</t>
-        </is>
-      </c>
+      <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="inlineStr"/>
@@ -1981,6 +2257,1296 @@
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'May 2025', 'Country': 'Germany', 'Name_of_Festival': 'Neisse Film Festival'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>An auteur short animated documentary exploring the inner feelings of home. What does home mean to each of us?</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>An auteur film on the theme of inner feelings of home. What is home for each of us? Where is this place located? What is it connected to? Is home a specific place, or is home within us? A journey around the world in search of that "home" - the place where you feel you belong. Where you are safe and among your own.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>I really liked studying and living in the Czech Republic, but throughout my studies I kept thinking about my home, about my family that I left behind in Belarus. Being a foreigner was not as easy as I thought. I had to go through many hardships, but the hardest was homesickness and family. This feeling tormented me, the thoughts didn't want to leave my head and I decided to release these emotions in my work.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Jak vám mohu pomoci? [How can I help you?] (2022) - one episode from the eight-part Czech television animated series']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>home.html</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Domov</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Belarussian</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>English, Czech</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Februrary 2025</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>00:05:45</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>['animation', 'documentary', 'experimental']</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>home, home sick, lyrical</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Anastasiya Skarko</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Anastasiya Skarko</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Miroslav Chaloupka</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Yaraslau Dubashynski</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>05.09.1998</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>Anastasiya was born in Minsk, Belarus. Since 2018, she has worked as an art editor at the magazine of satire and humor "Vozhik". In 2020-2024 she studied animation at the Ladislav Sutnar Faculty of Design and Art at the University of West Bohemia in Pilsen.</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>2D</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>HD: 1920X1080</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>Black &amp; White</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>University of West Bohemia</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>MAUR FILM</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A fallen minister and a naive dreamer are thrown together by chance. One surreal night forces them to face truth, ambition, and their deepest fears.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A disgraced justice minister meets an ambitious young woman on a delayed train to Prague. Their unlikely bond deepens over one surreal night filled with hidden lovers, unexpected truths, and a drunken dance of reckoning, as both confront ambition, loneliness, and the need for connection.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Return explores the unraveling of a powerful woman after a political downfall. I'm drawn to layered characters and contradictions—especially women in power and how they’re judged differently than men. The film shifts tone and setting to reflect Patricie’s inner descent, using stylized visuals and dynamic camera work to mirror her instability, loneliness, and vulnerability. At its core, it’s about communication breakdown and the clash of ideals.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['Příspěvek na bydlení (Housing allowance), 2024 - director', "Muž, který nemohl spát (The man who couldn't sleep), 2023 - screenwriter", 'Rozloučení, 2023 - screenwriter', 'auto.au.rum (all.about.rum), 2022 - director and screenwriter']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>return.html</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Návrat</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Czech</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>00:24:48</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>['drama', 'psychological']</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>local politician, bad day, woman in distress</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Lukáš Valíšek</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Lukáš Valíšek</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Marcela Mencelová, Vojtěch Adalbert Dvořák</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Adéla Kelbichová</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Jakub Jedlička</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Tereza Thérová, Lucie Pangrácová</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Václav Chalupský</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>['Alena Štréblová (Tricia)', 'Alžběta Nováková (Laura)', 'Jindřiška Dudziaková (Veronika)', 'Jakub Jelínek (Marek)', 'Mikuláš Čížek (Andrej)']</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>Lukáš Valíšek is a screenwriting graduate and current directing student at FAMU. He has worked as a writer and script editor on numerous short films and is currently developing several feature-length projects. In his free time, he enjoys drawing and playing video games, and is passionate about experimenting with different forms of storytelling.</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>HDCAM</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Apple ProRes</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>Barbora Podškubková</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>FAMU</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>Česká televize</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Edgar Allan Poe: Into the Mountains of Madness.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['Time Metallurgist (2024)', 'Místo (2020)', 'Vyčerpané Slunce [Exhausted sun] (2019)']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>snowblind.html</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SnowBlind</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SnowBlind</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>unintelligible language</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>00:08:53</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>['experimental']</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Edgar Alan Poe, Lovecraft</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Alex Strapkova, Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>Black &amp; White</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>Ochi&amp;Ushi</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[{'Date': '13. 6. 2025', 'Country': 'Germany', 'Name_of_place_of_premiere': 'die Seriale - International Series Festival Giessen'}]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>In a cosmic contest to design life on a new planet, a visionary Evolution Manager and his sidekick face overwhelming odds in a battle of creation.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Soul Shift – a visually stunning and delightfully wacky animated series by Christian Franz Schmidt – follows Evolution Managers shaping life across the universe. When Dew Blue and Sunny-Yellow enter a cosmic contest, it spirals into a wild battle that tests not only their strategy, but their friendship too.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['The Zilla family has a picnic (2019)', 'A perfect day (2017)', "The most beautiful children's songs (2016) - web series", 'Durchfallmann - The rescue parachute (2015)', 'Rosi Romance (2015)', 'Durchfallmann - The chain carousel is out of control (2014)', 'A swan has a plan (2013)', 'Santa dares to go nuclear (2013)', 'Invageddon (2012) - web series', 'The claustro toad (2011)', 'Egg Nappers (2011)', 'The Christmas tree socialization project (2010)', 'Rome (2006)', 'The diarrhea man (2005)']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>soul_ shift.html</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Soul Shift</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Soul Shift</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>German, English</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>['animation', 'sci-fi', 'comedy']</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>comics</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>evolution, universe, cosmic, fantasy</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Thomas Mehlhorn</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt studied animation at HFF Konrad Wolf Potsdam-Babelsberg. He was a pre-selection juror for the Stuttgart International Festival of Animated Film in 2013. From 2012–2019, he headed animation at a major media agency and has been working as a freelancer since 2012.</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>Thomas Schneider-Trumpp, Johann Frank, Wolfgang Heidrich</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>Hessischer Rundfunk</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[{'Date': '2024', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm (czech / world premiere)'}]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[{'Date': '2024', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'October 2024', 'Country': 'Portugal', 'Name_of_Festival': 'Cinanima'}, {'Date': 'December 2024', 'Country': 'Slovenia', 'Name_of_Festival': 'Animateka International Animated Film Festival'}, {'Date': 'August 2025', 'Country': 'Italy', 'Name_of_Festival': 'Film Festival della Lessinia'}, {'Date': 'October 2025', 'Country': 'Romania', 'Name_of_Festival': 'Animest'}, {'Date': 'November 2025', 'Country': 'Italy', 'Name_of_Festival': 'Reggio Film Festival'}]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>The film explores waves in nature and life through dramatic moments, human fragments, and flowing movements in sea, grass, and branches.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>This short author film is being created using sand animation, and explores the theme of waves in various forms and contexts. A collage of situations from non-specific places around the globe, and the rhythmical motion and sound of waves occuring naturally in the world around us.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>waves.html</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Vlny</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Waves</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>no dialogue</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>00:08:00</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>['animation', 'children', 'war', 'poetic']</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>waves, lyrical,</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Michael Carrington</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Michael Carrington</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Tomáš Doruška</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Turgut Mavuk</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Ahmet Kenan Bilgic</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>Michael Carrington, artist and animator, was born in 1973 in London. He studied in Zlín and teaches animation at FAMU in Prague. He worked at Ealing Studios and as lead animator on Jan Balej’s films. He supervised award-winning shorts Daughter and The Kite.</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>sand/powder</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>monochromatic underlit sand animation</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>Stereo (2.0, L+R)</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>Michael Bureš</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>Automat Svět s.r.o.</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[{'Date': '06/2024', 'Country': 'Croatia', 'Name_of_place_of_premiere': 'Animafest Zagreb'}]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[{'Date': '07/2024', 'Country': 'Italy', 'Name_of_Festival': 'ShorTS - International Film Festival'}, {'Date': '11/2024', 'Country': 'Switzerland', 'Name_of_Festival': 'Internationale Kurzfilmtage Winterthur'}, {'Date': '10/2024', 'Country': 'Hungary', 'Name_of_Festival': 'Primanima World Festival of First Animations'}, {'Date': '03/2025', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Alice and her grandpa uncovers their shared interest in butterflies, uniting their distinct perspectives - through a video game and the real world.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Alice's summer at her grandpa's takes an unexpected turn. Obsessed with a butterfly-catching video game, she's oblivious to the world around, as well as her entomologist grandpa's interest in protecting endangered butterflies. In a powerful thunderstorm, her wonder for reality awakens, and their bond deepens.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I myself grew up in a time when digital techonology influenced me at a young age. In the film I wanted to project a subjective view of the world of the heroine, who prefers the colourful reality of a video game to the actual world Our film can inspire kids to look up from their screens and encourage them to seek adventure outside of their comfort zone, with their friends.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['Až vyrostu (When I grow up), 2021']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>world_i_live_in.html</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Svět, ve kterém žiji</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>World I live in</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Without dialogue</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>00:07:16</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>['animation', 'educational']</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>family, environment, kids, videogame</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Ester Kasalová</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Ester Kasalová</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Lucie Hecht</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Tomáš Jiřička</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Ester Kasalová, Eliška Kerbachová, Viktorie Ramiková</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Pavel Duda</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>Ester Kasalová is a FAMU Master's student specializing in 2D animation and family storytelling. Her work often dvelves into the themes of intergenerational relationships and exploration of reality.</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>HD: 1920X1080</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>Tomáš Šimon - FAMU - Film and TV School of the Academy of Performing Arts in Prague</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>Smetanovo nábřeží 2</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>116 65 Prague 1</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>www.famu.cz</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>Hynek Spurný - Altum Frames</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>Zahoranskeho 1944/4</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>120 00 Prague 2</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/extracted_data/all_html_data.xlsx
+++ b/extracted_data/all_html_data.xlsx
@@ -848,7 +848,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>about_cow.html</t>
+          <t>about_a_cow.html</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1038,34 +1038,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm (czech and world premiere)'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}]</t>
+          <t>[{'Date': 'September 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+          <t>[{'Date': '2024', 'Country': 'USA', 'Festival_Section_of_Competition': 'Student Academy Awards - Golden Medal'}]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A giant beetroot goes on a rampage in this wild Slavic kaiju tale mixing live action, stop-motion, and 2D animation.</t>
+          <t>On New Year's Eve 1944, two Sudeten men—one a widower, the other an SS officer—confront a shared past in a snowbound cottage cut off from the world.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inspired by the traditional Slavic folktale “The Enormous Turnip,” a beetroot grows so huge that no one can pull it from the ground. When a local crane operator is hired to do the job, the giant vegetable turns violent and destructive. As chaos unfolds, an army is mobilized to stop it — but maybe there’s another way to appease this monstrous force.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Beetroot is a collaboration between two directors from FAMU and UMPRUM, blending distinct authorial styles. Inspired by the classic Czech tale The Big Beetroot, we reimagine the beet as an uncontrollable force, merging fairy tale with the Japanese Kaiju genre. As the beet grows, so do the problems—nature's power takes monstrous form.</t>
-        </is>
-      </c>
+          <t>On New Year’s Eve 1944, widower Petr Bernat and SS officer Konrad Neumann meet in a remote cottage during a snowstorm. United only by their Sudeten origins, their conversation shifts from trivial topics to painful truths, leading to a fateful night for both men.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1073,28 +1069,28 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>beetroot.html</t>
+          <t>compatriot.html</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Řepa</t>
+          <t>Krajan</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>The Beetroot</t>
+          <t>The Compatriot</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Czech</t>
+          <t>Czech, German</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>English, Czech</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1104,12 +1100,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>05.01.2025</t>
+          <t>01.01.2023</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>00:12:56</t>
+          <t>00:24:34</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -1122,16 +1118,20 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>['animation', 'fairytale', 'sci-fi']</t>
+          <t>['psychological', 'drama', 'historical', 'war']</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>beetroot, fairytale, kaiju, enviroment</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
+          <t>WWII, second world war, Sudeten</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>general audience</t>
@@ -1140,42 +1140,38 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Jáchym Štulíř, David Šourek</t>
+          <t>Viktor Horák, Pavel Sýkora</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Jáchym Štulíř, David Šourek</t>
+          <t>Petr Pelech, Pavel Sýkora</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>David Šourek</t>
+          <t>Pavel Sýkora</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Ondřej Plecháč</t>
+          <t>Lukáš Skalník</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Juras Karaka</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>Jáchym Štulíř</t>
-        </is>
-      </c>
+          <t>Yurii Fenynets</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Juras Karaka</t>
+          <t>Jakub Zajíc</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Jiří Štěpnička', 'Pavel Batěk', 'Martin Hlubocký']</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr"/>
@@ -1189,16 +1185,8 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>2D computer</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>mixing live action</t>
-        </is>
-      </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
@@ -1208,22 +1196,14 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>ProRes, h264</t>
-        </is>
-      </c>
+      <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>2K</t>
+          <t>4k</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>25</t>
@@ -1232,7 +1212,7 @@
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>1.33 (4:3)</t>
+          <t>1.78 (16:9)</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr"/>
@@ -1250,17 +1230,17 @@
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>FAMU</t>
+          <t>FAMO</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>Smetanovo nábřeží 2</t>
+          <t>Lipová alej 2068</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
         <is>
-          <t>116 65 Prague 1</t>
+          <t>397 01 Písek</t>
         </is>
       </c>
       <c r="BL3" t="inlineStr">
@@ -1270,59 +1250,19 @@
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>famu.cz</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>UMPRUM - Michaela Režová</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>nám. J. Palacha 80/3</t>
-        </is>
-      </c>
-      <c r="BP3" t="inlineStr">
-        <is>
-          <t>116 93 Prague 1</t>
-        </is>
-      </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>umprum.cz</t>
-        </is>
-      </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>Altum Frames - Hynek Spurný</t>
-        </is>
-      </c>
-      <c r="BT3" t="inlineStr">
-        <is>
-          <t>Záhořanského 1944/4</t>
-        </is>
-      </c>
-      <c r="BU3" t="inlineStr">
-        <is>
-          <t>120 00 Prague 2</t>
-        </is>
-      </c>
-      <c r="BV3" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BW3" t="inlineStr">
-        <is>
-          <t>altumframes.com</t>
-        </is>
-      </c>
+          <t>www.filmovka.cz</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1332,54 +1272,58 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[{'Date': 'September 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[{'Date': '2024', 'Country': 'USA', 'Festival_Section_of_Competition': 'Student Academy Awards - Golden Medal'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>On New Year's Eve 1944, two Sudeten men—one a widower, the other an SS officer—confront a shared past in a snowbound cottage cut off from the world.</t>
+          <t>Two small-town policemen are first on the scene of a mass shooting — and must act fast with hostages still inside.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>On New Year’s Eve 1944, widower Petr Bernat and SS officer Konrad Neumann meet in a remote cottage during a snowstorm. United only by their Sudeten origins, their conversation shifts from trivial topics to painful truths, leading to a fateful night for both men.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>A routine day for two small-town policemen, young Pavel and experienced Michal, is turned upside down when they become the first patrol to arrive at the scene of a mass shooting at a restaurant with hostages still inside.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I drew inspiration for First Patrol from a 2015 tragedy in the South Moravian town of Uherský Brod, Czech Republic – the country’s first mass shooting. The title reflects both the officers’ arrival as the first patrol and Czech society’s first encounter with such violence. My intention was never a reconstruction, but a fictional immersive journey that places us in the patrol car and uniform of the first responders, who are both the earliest witnesses to such horrors and, above all, human beings.</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['• První hlídka / First Patrol (2025), 18 mins, police drama', '• Návštěvník / Visitor (2025), 20 mins, mysterious drama with horror elements', '• Cirkus / Cirque (2025), 5 mins, drama, 35mm colour film', '• Na kopci / On That Hill (2024), 3 mins, documentary portrait, 35mm black&amp;white film', '• Doprovázení / It Can Be Any Day (2023), 28 mins, family drama', 'Finalist for the Magnesia Award for Best Student Film of 2023', '• Růžička ve tmě / Rose in the Dark (2022), 10 mins, psychological drama, thriller', 'Panorama EnergaCAMERIMAGE 2022', '• Sen / Dream (2022), 5 mins, parable, 16mm colour film', '• 2-3 minuty / Two to Three Minutes (2021), 11 mins, drama', '• Konstruktér / The Constructor (2020), 8 mins, documentary portrait', '• Vyhnání / Expulsion (2019), 10 mins, historical drama, 16mm colour film', '• Kosmonaut / Cosmonaut (2019), 7 mins, children drama']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>compatriot.html</t>
+          <t>first_patrol.html</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Krajan</t>
+          <t>První hlídka</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>The Compatriot</t>
+          <t>First patrol</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Czech, German</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>English, Czech</t>
+          <t>English</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1389,12 +1333,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>01.01.2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>00:24:34</t>
+          <t>00:18:12</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -1407,77 +1351,97 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>['psychological', 'drama', 'historical', 'war']</t>
+          <t>['drama', 'crime', 'psychological']</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>WWII, second world war, Sudeten</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>general audience</t>
-        </is>
-      </c>
+          <t>first responders, police work, mass shooting, true crime</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Viktor Horák, Pavel Sýkora</t>
+          <t>Vojtěch Konečný</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Petr Pelech, Pavel Sýkora</t>
+          <t>Jan Dvořáček, Vojtěch Konečný</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Pavel Sýkora</t>
+          <t>Filip Hájek</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Lukáš Skalník</t>
+          <t>Enis Saraçi</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Yurii Fenynets</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr"/>
+          <t>Jan Strnad</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Anna Machátová</t>
+        </is>
+      </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Jakub Zajíc</t>
+          <t>Tomáš Borl</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>['Jiří Štěpnička', 'Pavel Batěk', 'Martin Hlubocký']</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+          <t>['František Beleš', 'Pavel Řezníček']</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>03.07.1995</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Vojtěch Konečný is a Czech writer-director. He is finishing the MA film directing course at FAMU. He graduated from University of the Arts London, BA (Hons) Film and TV course. He is one of the founders of the film production company nukleon frame. His short film Rose in the Dark (2022) premiered at the 30th EnergaCAMERIMAGE IFF in Poland and his short movie It Can Be Any Day (2023) was the finalist for Magnesia Award at the film awards Czech Lions for Best Student Film of 2023.</t>
+        </is>
+      </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Sony Venice, lenses: PANAVISION G SERIES ANAMORPHICS</t>
+        </is>
+      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>Adobe Premiere Pro</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Protools</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr">
@@ -1485,32 +1449,48 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>ProRes</t>
+        </is>
+      </c>
       <c r="AX4" t="inlineStr">
         <is>
           <t>4k</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>1.78 (16:9)</t>
-        </is>
-      </c>
-      <c r="BD4" t="inlineStr"/>
+          <t>2.00 (Netflix, Apple TV+, RED, Arri...)</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>DCP is S-200 (scope 2:1)</t>
+        </is>
+      </c>
       <c r="BE4" t="inlineStr">
         <is>
           <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>or stereo for screeners</t>
+        </is>
+      </c>
       <c r="BG4" t="inlineStr">
         <is>
           <t>Colour</t>
@@ -1519,35 +1499,43 @@
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>FAMO</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>Lipová alej 2068</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>397 01 Písek</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr">
+          <t>Adéla Konečná</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>nukleon frame</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>Davidkova 29</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>180 00, Prague 8</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>www.filmovka.cz</t>
-        </is>
-      </c>
-      <c r="BN4" t="inlineStr"/>
-      <c r="BO4" t="inlineStr"/>
-      <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>https://nukleonframe.cz/en/</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>FAMU, Czech Television, Lonely Production</t>
+        </is>
+      </c>
       <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
@@ -1556,7 +1544,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+          <t>[{'Date': '1.4.2025', 'Country': 'Argentina', 'Name_of_place_of_premiere': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1571,53 +1559,53 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Two small-town policemen are first on the scene of a mass shooting — and must act fast with hostages still inside.</t>
+          <t>In a world ruled by a mysterious telephone, power shifts from a distant force to the people themselves—revealing how the oppressed become oppressors.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A routine day for two small-town policemen, young Pavel and experienced Michal, is turned upside down when they become the first patrol to arrive at the scene of a mass shooting at a restaurant with hostages still inside.</t>
+          <t>Late at night in a shabby office, workers are stuck to the ceiling by their hats, blindly doing their jobs. Oblivious to the absurdity, they vanish one by one when an old phone rings. Only Hatker dares to face reality — turning their Kafkaesque world upside down.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>I drew inspiration for First Patrol from a 2015 tragedy in the South Moravian town of Uherský Brod, Czech Republic – the country’s first mass shooting. The title reflects both the officers’ arrival as the first patrol and Czech society’s first encounter with such violence. My intention was never a reconstruction, but a fictional immersive journey that places us in the patrol car and uniform of the first responders, who are both the earliest witnesses to such horrors and, above all, human beings.</t>
+          <t>Hatker explores the theme of power, symbolized by a telephone dictating behavior from afar. As the story unfolds, power proves decentralized—internalized and reproduced by individuals themselves. Inspired by my own experience in a corporate office, the film uses the metaphor of “hats” to represent the roles we adopt until the protagonist chooses to break free by taking his off.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['• První hlídka / First Patrol (2025), 18 mins, police drama', '• Návštěvník / Visitor (2025), 20 mins, mysterious drama with horror elements', '• Cirkus / Cirque (2025), 5 mins, drama, 35mm colour film', '• Na kopci / On That Hill (2024), 3 mins, documentary portrait, 35mm black&amp;white film', '• Doprovázení / It Can Be Any Day (2023), 28 mins, family drama', 'Finalist for the Magnesia Award for Best Student Film of 2023', '• Růžička ve tmě / Rose in the Dark (2022), 10 mins, psychological drama, thriller', 'Panorama EnergaCAMERIMAGE 2022', '• Sen / Dream (2022), 5 mins, parable, 16mm colour film', '• 2-3 minuty / Two to Three Minutes (2021), 11 mins, drama', '• Konstruktér / The Constructor (2020), 8 mins, documentary portrait', '• Vyhnání / Expulsion (2019), 10 mins, historical drama, 16mm colour film', '• Kosmonaut / Cosmonaut (2019), 7 mins, children drama']</t>
+          <t>['Epirenov, 2020', 'Hatker, 2025']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>first_patrol.html</t>
+          <t>hatker.html</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>První hlídka</t>
+          <t>Hatker</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>First patrol</t>
+          <t>Hatker</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Czech</t>
+          <t>Without dialogue</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1627,7 +1615,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>00:18:12</t>
+          <t>00:07:33</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -1640,13 +1628,13 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>['drama', 'crime', 'psychological']</t>
+          <t>['animation', 'absurd']</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>first responders, police work, mass shooting, true crime</t>
+          <t>hat, power, telephone, office, control, work, Kafka</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
@@ -1654,83 +1642,68 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Vojtěch Konečný</t>
+          <t>Alejandro Ariel Martin</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Jan Dvořáček, Vojtěch Konečný</t>
+          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Filip Hájek</t>
+          <t>Alejandro Ariel Martin</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Enis Saraçi</t>
+          <t>Alejandro Ariel Martin</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Jan Strnad</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Anna Machátová</t>
-        </is>
-      </c>
+          <t>Santiago Zecca</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Tomáš Borl</t>
+          <t>Hermes Scipioni</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>['František Beleš', 'Pavel Řezníček']</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>03.07.1995</t>
-        </is>
-      </c>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>Vojtěch Konečný is a Czech writer-director. He is finishing the MA film directing course at FAMU. He graduated from University of the Arts London, BA (Hons) Film and TV course. He is one of the founders of the film production company nukleon frame. His short film Rose in the Dark (2022) premiered at the 30th EnergaCAMERIMAGE IFF in Poland and his short movie It Can Be Any Day (2023) was the finalist for Magnesia Award at the film awards Czech Lions for Best Student Film of 2023.</t>
+          <t>Alejandro Ariel Martin is an Argentinian Film Director. He has a degree in Social Communication from the UNR and a postgraduate degree in Creative Communication from the Autonomous University of Barcelona.
+He is the director and scriptwriter of the short film “Epirenov” (2020) and “Hatker” (2025).</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Sony</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>Sony Venice, lenses: PANAVISION G SERIES ANAMORPHICS</t>
-        </is>
-      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>DSLR/DSLM</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>puppet</t>
+        </is>
+      </c>
       <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>Adobe Premiere Pro</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>Protools</t>
-        </is>
-      </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr">
@@ -1738,22 +1711,14 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>ProRes</t>
-        </is>
-      </c>
+      <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr">
         <is>
           <t>4k</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr">
         <is>
           <t>24</t>
@@ -1762,24 +1727,16 @@
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2.00 (Netflix, Apple TV+, RED, Arri...)</t>
-        </is>
-      </c>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>DCP is S-200 (scope 2:1)</t>
-        </is>
-      </c>
+          <t>1.85 ("flat format")</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr">
         <is>
           <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>or stereo for screeners</t>
-        </is>
-      </c>
+      <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr">
         <is>
           <t>Colour</t>
@@ -1788,43 +1745,19 @@
       <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>Adéla Konečná</t>
+          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>nukleon frame</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>Davidkova 29</t>
-        </is>
-      </c>
-      <c r="BP5" t="inlineStr">
-        <is>
-          <t>180 00, Prague 8</t>
-        </is>
-      </c>
-      <c r="BQ5" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BR5" t="inlineStr">
-        <is>
-          <t>https://nukleonframe.cz/en/</t>
-        </is>
-      </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>FAMU, Czech Television, Lonely Production</t>
-        </is>
-      </c>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
@@ -1833,12 +1766,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[{'Date': '1.4.2025', 'Country': 'Argentina', 'Name_of_place_of_premiere': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+          <t>[{'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'Uppsala International Short Film Festival'}, {'Date': '', 'Country': 'Belgium', 'Name_of_Festival': 'Anima - the Brussels Animation Film Festival'}, {'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1848,63 +1781,55 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>In a world ruled by a mysterious telephone, power shifts from a distant force to the people themselves—revealing how the oppressed become oppressors.</t>
+          <t>Can hedgehog swim?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Late at night in a shabby office, workers are stuck to the ceiling by their hats, blindly doing their jobs. Oblivious to the absurdity, they vanish one by one when an old phone rings. Only Hatker dares to face reality — turning their Kafkaesque world upside down.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hatker explores the theme of power, symbolized by a telephone dictating behavior from afar. As the story unfolds, power proves decentralized—internalized and reproduced by individuals themselves. Inspired by my own experience in a corporate office, the film uses the metaphor of “hats” to represent the roles we adopt until the protagonist chooses to break free by taking his off.</t>
-        </is>
-      </c>
+          <t>Slightly moralising pun, filmed with pleasant exaggeration and a sense of animation shorthand. A child's imagination knows no bounds, and anyone who gets too carried away, whether drawing or just looking at a picture, can end up getting really wet. A hedgehog like that doesn't seem to be a very good swimmer, but he's all the more powerful.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Epirenov, 2020', 'Hatker, 2025']</t>
+          <t>['Misophonia Orchestra (2022)', 'Kuku [Cuckoo](2020)', 'Medvědění [Bearing] (2018)', 'Závodní horečka [Racing Fever] (2017)', 'Nezbeda (2015)']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>hatker.html</t>
+          <t>hedgehog.html</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Hatker</t>
+          <t>Ježek</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hatker</t>
+          <t>The Hedgehog</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Without dialogue</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>no dialogue</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>February 2023</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>00:07:33</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -1917,49 +1842,45 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>['animation', 'absurd']</t>
+          <t>['animation', 'children', 'comedy']</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>hat, power, telephone, office, control, work, Kafka</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+          <t>hedgehog, swimming pool, child's imagination</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>3+</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin</t>
+          <t>Daniela Hýbnerová</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Alejandro Ariel Martin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>Alejandro Ariel Martin</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>Santiago Zecca</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>Hermes Scipioni</t>
-        </is>
-      </c>
+          <t>Daniela Hýbnerová</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Daniela Hýbnerová</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1968,16 +1889,11 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin is an Argentinian Film Director. He has a degree in Social Communication from the UNR and a postgraduate degree in Creative Communication from the Autonomous University of Barcelona.
-He is the director and scriptwriter of the short film “Epirenov” (2020) and “Hatker” (2025).</t>
+          <t>Daniela Hýbnerová graduated from the Animation Department at FAMU in Prague. Her short animated film The One About the Shirt won 2nd place in the international round of the Nespresso Talents 2020 competition. Daniela is a fan of Formula 1 racing, film music and the world of Harry Potter.</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>DSLR/DSLM</t>
-        </is>
-      </c>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
@@ -1987,7 +1903,7 @@
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>puppet</t>
+          <t>2D computer</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr"/>
@@ -2000,10 +1916,14 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Prores, H264</t>
+        </is>
+      </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>4k</t>
+          <t>HD: 1920X1080</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -2016,7 +1936,7 @@
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>1.85 ("flat format")</t>
+          <t>1.78 (16:9)</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr"/>
@@ -2032,11 +1952,7 @@
         </is>
       </c>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
-        </is>
-      </c>
+      <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
@@ -2060,7 +1976,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'Uppsala International Short Film Festival'}, {'Date': '', 'Country': 'Belgium', 'Name_of_Festival': 'Anima - the Brussels Animation Film Festival'}, {'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'May 2025', 'Country': 'Germany', 'Name_of_Festival': 'Neisse Film Festival'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2070,42 +1986,50 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Can hedgehog swim?</t>
+          <t>An auteur short animated documentary exploring the inner feelings of home. What does home mean to each of us?</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Slightly moralising pun, filmed with pleasant exaggeration and a sense of animation shorthand. A child's imagination knows no bounds, and anyone who gets too carried away, whether drawing or just looking at a picture, can end up getting really wet. A hedgehog like that doesn't seem to be a very good swimmer, but he's all the more powerful.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>An auteur film on the theme of inner feelings of home. What is home for each of us? Where is this place located? What is it connected to? Is home a specific place, or is home within us? A journey around the world in search of that "home" - the place where you feel you belong. Where you are safe and among your own.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>I really liked studying and living in the Czech Republic, but throughout my studies I kept thinking about my home, about my family that I left behind in Belarus. Being a foreigner was not as easy as I thought. I had to go through many hardships, but the hardest was homesickness and family. This feeling tormented me, the thoughts didn't want to leave my head and I decided to release these emotions in my work.</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Misophonia Orchestra (2022)', 'Kuku [Cuckoo](2020)', 'Medvědění [Bearing] (2018)', 'Závodní horečka [Racing Fever] (2017)', 'Nezbeda (2015)']</t>
+          <t>['Jak vám mohu pomoci? [How can I help you?] (2022) - one episode from the eight-part Czech television animated series']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>hedgehog.html</t>
+          <t>home.html</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Ježek</t>
+          <t>Domov</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>The Hedgehog</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>no dialogue</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>Belarussian</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>English, Czech</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>Czech Republic</t>
@@ -2113,12 +2037,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>February 2023</t>
+          <t>Februrary 2025</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:05:45</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -2131,54 +2055,62 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>['animation', 'children', 'comedy']</t>
+          <t>['animation', 'documentary', 'experimental']</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>hedgehog, swimming pool, child's imagination</t>
+          <t>home, home sick, lyrical</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>3+</t>
+          <t>15+</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>general audience</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová</t>
+          <t>Anastasiya Skarko</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová</t>
+          <t>Anastasiya Skarko</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>Daniela Hýbnerová</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Miroslav Chaloupka</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Yaraslau Dubashynski</t>
+        </is>
+      </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>05.09.1998</t>
+        </is>
+      </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová graduated from the Animation Department at FAMU in Prague. Her short animated film The One About the Shirt won 2nd place in the international round of the Nespresso Talents 2020 competition. Daniela is a fan of Formula 1 racing, film music and the world of Harry Potter.</t>
+          <t>Anastasiya was born in Minsk, Belarus. Since 2018, she has worked as an art editor at the magazine of satire and humor "Vozhik". In 2020-2024 she studied animation at the Ladislav Sutnar Faculty of Design and Art at the University of West Bohemia in Pilsen.</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr"/>
@@ -2190,12 +2122,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>2D computer</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>2D</t>
+        </is>
+      </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
@@ -2205,11 +2137,7 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>Prores, H264</t>
-        </is>
-      </c>
+      <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr">
         <is>
           <t>HD: 1920X1080</t>
@@ -2237,11 +2165,15 @@
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Black &amp; White</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>University of West Bohemia</t>
+        </is>
+      </c>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
@@ -2251,7 +2183,11 @@
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>MAUR FILM</t>
+        </is>
+      </c>
       <c r="BT7" t="inlineStr"/>
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
@@ -2265,7 +2201,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'May 2025', 'Country': 'Germany', 'Name_of_Festival': 'Neisse Film Festival'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2275,48 +2211,48 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>An auteur short animated documentary exploring the inner feelings of home. What does home mean to each of us?</t>
+          <t>A fallen minister and a naive dreamer are thrown together by chance. One surreal night forces them to face truth, ambition, and their deepest fears.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>An auteur film on the theme of inner feelings of home. What is home for each of us? Where is this place located? What is it connected to? Is home a specific place, or is home within us? A journey around the world in search of that "home" - the place where you feel you belong. Where you are safe and among your own.</t>
+          <t>A disgraced justice minister meets an ambitious young woman on a delayed train to Prague. Their unlikely bond deepens over one surreal night filled with hidden lovers, unexpected truths, and a drunken dance of reckoning, as both confront ambition, loneliness, and the need for connection.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>I really liked studying and living in the Czech Republic, but throughout my studies I kept thinking about my home, about my family that I left behind in Belarus. Being a foreigner was not as easy as I thought. I had to go through many hardships, but the hardest was homesickness and family. This feeling tormented me, the thoughts didn't want to leave my head and I decided to release these emotions in my work.</t>
+          <t>Return explores the unraveling of a powerful woman after a political downfall. I'm drawn to layered characters and contradictions—especially women in power and how they’re judged differently than men. The film shifts tone and setting to reflect Patricie’s inner descent, using stylized visuals and dynamic camera work to mirror her instability, loneliness, and vulnerability. At its core, it’s about communication breakdown and the clash of ideals.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Jak vám mohu pomoci? [How can I help you?] (2022) - one episode from the eight-part Czech television animated series']</t>
+          <t>['Příspěvek na bydlení (Housing allowance), 2024 - director', "Muž, který nemohl spát (The man who couldn't sleep), 2023 - screenwriter", 'Rozloučení, 2023 - screenwriter', 'auto.au.rum (all.about.rum), 2022 - director and screenwriter']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>home.html</t>
+          <t>return.html</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Domov</t>
+          <t>Návrat</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Return</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Belarussian</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>English, Czech</t>
+          <t>English</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -2326,12 +2262,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Februrary 2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>00:05:45</t>
+          <t>00:24:48</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -2344,13 +2280,13 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>['animation', 'documentary', 'experimental']</t>
+          <t>['drama', 'psychological']</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>home, home sick, lyrical</t>
+          <t>local politician, bad day, woman in distress</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2360,50 +2296,66 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>general audience</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Anastasiya Skarko</t>
+          <t>Lukáš Valíšek</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Anastasiya Skarko</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+          <t>Lukáš Valíšek</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Marcela Mencelová, Vojtěch Adalbert Dvořák</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Adéla Kelbichová</t>
+        </is>
+      </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Miroslav Chaloupka</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr"/>
+          <t>Jakub Jedlička</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Tereza Thérová, Lucie Pangrácová</t>
+        </is>
+      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Yaraslau Dubashynski</t>
+          <t>Václav Chalupský</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Alena Štréblová (Tricia)', 'Alžběta Nováková (Laura)', 'Jindřiška Dudziaková (Veronika)', 'Jakub Jelínek (Marek)', 'Mikuláš Čížek (Andrej)']</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>05.09.1998</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>Anastasiya was born in Minsk, Belarus. Since 2018, she has worked as an art editor at the magazine of satire and humor "Vozhik". In 2020-2024 she studied animation at the Ladislav Sutnar Faculty of Design and Art at the University of West Bohemia in Pilsen.</t>
+          <t>Lukáš Valíšek is a screenwriting graduate and current directing student at FAMU. He has worked as a writer and script editor on numerous short films and is currently developing several feature-length projects. In his free time, he enjoys drawing and playing video games, and is passionate about experimenting with different forms of storytelling.</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>HDCAM</t>
+        </is>
+      </c>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
@@ -2412,31 +2364,31 @@
         </is>
       </c>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>2D</t>
-        </is>
-      </c>
+      <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>DCP</t>
+          <t>Apple ProRes</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>HD: 1920X1080</t>
+          <t>4k</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr"/>
@@ -2454,27 +2406,31 @@
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>Black &amp; White</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>University of West Bohemia</t>
+          <t>Barbora Podškubková</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>FAMU</t>
+        </is>
+      </c>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>MAUR FILM</t>
+          <t>Česká televize</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr"/>
@@ -2500,63 +2456,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A fallen minister and a naive dreamer are thrown together by chance. One surreal night forces them to face truth, ambition, and their deepest fears.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>A disgraced justice minister meets an ambitious young woman on a delayed train to Prague. Their unlikely bond deepens over one surreal night filled with hidden lovers, unexpected truths, and a drunken dance of reckoning, as both confront ambition, loneliness, and the need for connection.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Return explores the unraveling of a powerful woman after a political downfall. I'm drawn to layered characters and contradictions—especially women in power and how they’re judged differently than men. The film shifts tone and setting to reflect Patricie’s inner descent, using stylized visuals and dynamic camera work to mirror her instability, loneliness, and vulnerability. At its core, it’s about communication breakdown and the clash of ideals.</t>
-        </is>
-      </c>
+          <t>Edgar Allan Poe: Into the Mountains of Madness.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Příspěvek na bydlení (Housing allowance), 2024 - director', "Muž, který nemohl spát (The man who couldn't sleep), 2023 - screenwriter", 'Rozloučení, 2023 - screenwriter', 'auto.au.rum (all.about.rum), 2022 - director and screenwriter']</t>
+          <t>['Time Metallurgist (2024)', 'Místo (2020)', 'Vyčerpané Slunce [Exhausted sun] (2019)']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>return.html</t>
+          <t>snowblind.html</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Návrat</t>
+          <t>SnowBlind</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Return</t>
+          <t>SnowBlind</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Czech</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
+          <t>unintelligible language</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>00:24:48</t>
+          <t>00:08:53</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -2569,82 +2509,50 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>['drama', 'psychological']</t>
+          <t>['experimental']</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>local politician, bad day, woman in distress</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
+          <t>Edgar Alan Poe, Lovecraft</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek</t>
+          <t>Tomáš Rampula</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Marcela Mencelová, Vojtěch Adalbert Dvořák</t>
-        </is>
-      </c>
+          <t>Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Adéla Kelbichová</t>
+          <t>Tomáš Rampula</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Jakub Jedlička</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>Tereza Thérová, Lucie Pangrácová</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>Václav Chalupský</t>
-        </is>
-      </c>
+          <t>Alex Strapkova, Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>['Alena Štréblová (Tricia)', 'Alžběta Nováková (Laura)', 'Jindřiška Dudziaková (Veronika)', 'Jakub Jelínek (Marek)', 'Mikuláš Čížek (Andrej)']</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>Lukáš Valíšek is a screenwriting graduate and current directing student at FAMU. He has worked as a writer and script editor on numerous short films and is currently developing several feature-length projects. In his free time, he enjoys drawing and playing video games, and is passionate about experimenting with different forms of storytelling.</t>
-        </is>
-      </c>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>HDCAM</t>
-        </is>
-      </c>
+      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
@@ -2658,70 +2566,42 @@
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>Apple ProRes</t>
-        </is>
-      </c>
+      <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
+      <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr">
-        <is>
-          <t>1.78 (16:9)</t>
-        </is>
-      </c>
+      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr">
-        <is>
-          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
-        </is>
-      </c>
+      <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Black &amp; White</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr">
-        <is>
-          <t>Barbora Podškubková</t>
-        </is>
-      </c>
+      <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>FAMU</t>
+          <t>Ochi&amp;Ushi</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr">
-        <is>
-          <t>Česká televize</t>
-        </is>
-      </c>
+      <c r="BS9" t="inlineStr"/>
       <c r="BT9" t="inlineStr"/>
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
@@ -2730,7 +2610,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+          <t>[{'Date': '13. 6. 2025', 'Country': 'Germany', 'Name_of_place_of_premiere': 'die Seriale - International Series Festival Giessen'}]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2745,47 +2625,55 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Edgar Allan Poe: Into the Mountains of Madness.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>In a cosmic contest to design life on a new planet, a visionary Evolution Manager and his sidekick face overwhelming odds in a battle of creation.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Soul Shift – a visually stunning and delightfully wacky animated series by Christian Franz Schmidt – follows Evolution Managers shaping life across the universe. When Dew Blue and Sunny-Yellow enter a cosmic contest, it spirals into a wild battle that tests not only their strategy, but their friendship too.</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Time Metallurgist (2024)', 'Místo (2020)', 'Vyčerpané Slunce [Exhausted sun] (2019)']</t>
+          <t>['The Zilla family has a picnic (2019)', 'A perfect day (2017)', "The most beautiful children's songs (2016) - web series", 'Durchfallmann - The rescue parachute (2015)', 'Rosi Romance (2015)', 'Durchfallmann - The chain carousel is out of control (2014)', 'A swan has a plan (2013)', 'Santa dares to go nuclear (2013)', 'Invageddon (2012) - web series', 'The claustro toad (2011)', 'Egg Nappers (2011)', 'The Christmas tree socialization project (2010)', 'Rome (2006)', 'The diarrhea man (2005)']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>snowblind.html</t>
+          <t>soul_ shift.html</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SnowBlind</t>
+          <t>Soul Shift</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SnowBlind</t>
+          <t>Soul Shift</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>unintelligible language</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
+          <t>German, English</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>00:08:53</t>
+          <t>00:10:00</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -2798,48 +2686,64 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>['experimental']</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
+          <t>['animation', 'sci-fi', 'comedy']</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>comics</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Edgar Alan Poe, Lovecraft</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+          <t>evolution, universe, cosmic, fantasy</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Tomáš Rampula</t>
+          <t>Christian Franz Schmidt</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>Tomáš Rampula</t>
+          <t>Christian Franz Schmidt</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>Tomáš Rampula</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>Alex Strapkova, Tomáš Rampula</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Thomas Mehlhorn</t>
+        </is>
+      </c>
       <c r="AH10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt studied animation at HFF Konrad Wolf Potsdam-Babelsberg. He was a pre-selection juror for the Stuttgart International Festival of Animated Film in 2013. From 2012–2019, he headed animation at a major media agency and has been working as a freelancer since 2012.</t>
+        </is>
+      </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
@@ -2860,11 +2764,7 @@
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -2872,25 +2772,29 @@
       <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>Black &amp; White</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>Thomas Schneider-Trumpp, Johann Frank, Wolfgang Heidrich</t>
+        </is>
+      </c>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr">
-        <is>
-          <t>Ochi&amp;Ushi</t>
-        </is>
-      </c>
+      <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>Hessischer Rundfunk</t>
+        </is>
+      </c>
       <c r="BT10" t="inlineStr"/>
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
@@ -2899,12 +2803,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[{'Date': '13. 6. 2025', 'Country': 'Germany', 'Name_of_place_of_premiere': 'die Seriale - International Series Festival Giessen'}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm (czech and world premiere)'}]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2914,39 +2818,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>In a cosmic contest to design life on a new planet, a visionary Evolution Manager and his sidekick face overwhelming odds in a battle of creation.</t>
+          <t>A giant beetroot goes on a rampage in this wild Slavic kaiju tale mixing live action, stop-motion, and 2D animation.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Soul Shift – a visually stunning and delightfully wacky animated series by Christian Franz Schmidt – follows Evolution Managers shaping life across the universe. When Dew Blue and Sunny-Yellow enter a cosmic contest, it spirals into a wild battle that tests not only their strategy, but their friendship too.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Inspired by the traditional Slavic folktale “The Enormous Turnip,” a beetroot grows so huge that no one can pull it from the ground. When a local crane operator is hired to do the job, the giant vegetable turns violent and destructive. As chaos unfolds, an army is mobilized to stop it — but maybe there’s another way to appease this monstrous force.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Beetroot is a collaboration between two directors from FAMU and UMPRUM, blending distinct authorial styles. Inspired by the classic Czech tale The Big Beetroot, we reimagine the beet as an uncontrollable force, merging fairy tale with the Japanese Kaiju genre. As the beet grows, so do the problems—nature's power takes monstrous form.</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['The Zilla family has a picnic (2019)', 'A perfect day (2017)', "The most beautiful children's songs (2016) - web series", 'Durchfallmann - The rescue parachute (2015)', 'Rosi Romance (2015)', 'Durchfallmann - The chain carousel is out of control (2014)', 'A swan has a plan (2013)', 'Santa dares to go nuclear (2013)', 'Invageddon (2012) - web series', 'The claustro toad (2011)', 'Egg Nappers (2011)', 'The Christmas tree socialization project (2010)', 'Rome (2006)', 'The diarrhea man (2005)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>soul_ shift.html</t>
+          <t>the_beetroot.html</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Soul Shift</t>
+          <t>Řepa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Soul Shift</t>
+          <t>The Beetroot</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>German, English</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2956,13 +2864,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>05.01.2025</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:12:56</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -2975,24 +2887,16 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>['animation', 'sci-fi', 'comedy']</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>comics</t>
-        </is>
-      </c>
+          <t>['animation', 'fairytale', 'sci-fi']</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>evolution, universe, cosmic, fantasy</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
+          <t>beetroot, fairytale, kaiju, enviroment</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
           <t>general audience</t>
@@ -3001,25 +2905,37 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
+          <t>Jáchym Štulíř, David Šourek</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+          <t>Jáchym Štulíř, David Šourek</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>David Šourek</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Ondřej Plecháč</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Juras Karaka</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
+          <t>Jáchym Štulíř</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Thomas Mehlhorn</t>
+          <t>Juras Karaka</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3028,11 +2944,7 @@
         </is>
       </c>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>Christian Franz Schmidt studied animation at HFF Konrad Wolf Potsdam-Babelsberg. He was a pre-selection juror for the Stuttgart International Festival of Animated Film in 2013. From 2012–2019, he headed animation at a major media agency and has been working as a freelancer since 2012.</t>
-        </is>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
@@ -3042,22 +2954,58 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>mixing live action</t>
+        </is>
+      </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>ProRes, h264</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>2K</t>
+        </is>
+      </c>
       <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>1.33 (4:3)</t>
+        </is>
+      </c>
       <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
       <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="inlineStr">
         <is>
@@ -3067,27 +3015,79 @@
       <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>Thomas Schneider-Trumpp, Johann Frank, Wolfgang Heidrich</t>
-        </is>
-      </c>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
+          <t>FAMU</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>Smetanovo nábřeží 2</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>116 65 Prague 1</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>famu.cz</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>UMPRUM - Michaela Režová</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>nám. J. Palacha 80/3</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>116 93 Prague 1</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>umprum.cz</t>
+        </is>
+      </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>Hessischer Rundfunk</t>
-        </is>
-      </c>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
+          <t>Altum Frames - Hynek Spurný</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>Záhořanského 1944/4</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>120 00 Prague 2</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>altumframes.com</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">

--- a/extracted_data/all_html_data.xlsx
+++ b/extracted_data/all_html_data.xlsx
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'Uppsala International Short Film Festival'}, {'Date': '', 'Country': 'Belgium', 'Name_of_Festival': 'Anima - the Brussels Animation Film Festival'}, {'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'May 2025', 'Country': 'Germany', 'Name_of_Festival': 'Neisse Film Festival'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1781,42 +1781,50 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Can hedgehog swim?</t>
+          <t>An auteur short animated documentary exploring the inner feelings of home. What does home mean to each of us?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Slightly moralising pun, filmed with pleasant exaggeration and a sense of animation shorthand. A child's imagination knows no bounds, and anyone who gets too carried away, whether drawing or just looking at a picture, can end up getting really wet. A hedgehog like that doesn't seem to be a very good swimmer, but he's all the more powerful.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>An auteur film on the theme of inner feelings of home. What is home for each of us? Where is this place located? What is it connected to? Is home a specific place, or is home within us? A journey around the world in search of that "home" - the place where you feel you belong. Where you are safe and among your own.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>I really liked studying and living in the Czech Republic, but throughout my studies I kept thinking about my home, about my family that I left behind in Belarus. Being a foreigner was not as easy as I thought. I had to go through many hardships, but the hardest was homesickness and family. This feeling tormented me, the thoughts didn't want to leave my head and I decided to release these emotions in my work.</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Misophonia Orchestra (2022)', 'Kuku [Cuckoo](2020)', 'Medvědění [Bearing] (2018)', 'Závodní horečka [Racing Fever] (2017)', 'Nezbeda (2015)']</t>
+          <t>['Jak vám mohu pomoci? [How can I help you?] (2022) - one episode from the eight-part Czech television animated series']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>hedgehog.html</t>
+          <t>home.html</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Ježek</t>
+          <t>Domov</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>The Hedgehog</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>no dialogue</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+          <t>Belarussian</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>English, Czech</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Czech Republic</t>
@@ -1824,12 +1832,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>February 2023</t>
+          <t>Februrary 2025</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:05:45</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -1842,54 +1850,62 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>['animation', 'children', 'comedy']</t>
+          <t>['animation', 'documentary', 'experimental']</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>hedgehog, swimming pool, child's imagination</t>
+          <t>home, home sick, lyrical</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>3+</t>
+          <t>15+</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>general audience</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová</t>
+          <t>Anastasiya Skarko</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová</t>
+          <t>Anastasiya Skarko</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>Daniela Hýbnerová</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Miroslav Chaloupka</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Yaraslau Dubashynski</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>05.09.1998</t>
+        </is>
+      </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová graduated from the Animation Department at FAMU in Prague. Her short animated film The One About the Shirt won 2nd place in the international round of the Nespresso Talents 2020 competition. Daniela is a fan of Formula 1 racing, film music and the world of Harry Potter.</t>
+          <t>Anastasiya was born in Minsk, Belarus. Since 2018, she has worked as an art editor at the magazine of satire and humor "Vozhik". In 2020-2024 she studied animation at the Ladislav Sutnar Faculty of Design and Art at the University of West Bohemia in Pilsen.</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
@@ -1901,12 +1917,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>2D computer</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>2D</t>
+        </is>
+      </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
@@ -1916,11 +1932,7 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>Prores, H264</t>
-        </is>
-      </c>
+      <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr">
         <is>
           <t>HD: 1920X1080</t>
@@ -1948,11 +1960,15 @@
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Black &amp; White</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>University of West Bohemia</t>
+        </is>
+      </c>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
@@ -1962,7 +1978,11 @@
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>MAUR FILM</t>
+        </is>
+      </c>
       <c r="BT6" t="inlineStr"/>
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
@@ -1976,7 +1996,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'May 2025', 'Country': 'Germany', 'Name_of_Festival': 'Neisse Film Festival'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1986,48 +2006,48 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>An auteur short animated documentary exploring the inner feelings of home. What does home mean to each of us?</t>
+          <t>A fallen minister and a naive dreamer are thrown together by chance. One surreal night forces them to face truth, ambition, and their deepest fears.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>An auteur film on the theme of inner feelings of home. What is home for each of us? Where is this place located? What is it connected to? Is home a specific place, or is home within us? A journey around the world in search of that "home" - the place where you feel you belong. Where you are safe and among your own.</t>
+          <t>A disgraced justice minister meets an ambitious young woman on a delayed train to Prague. Their unlikely bond deepens over one surreal night filled with hidden lovers, unexpected truths, and a drunken dance of reckoning, as both confront ambition, loneliness, and the need for connection.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>I really liked studying and living in the Czech Republic, but throughout my studies I kept thinking about my home, about my family that I left behind in Belarus. Being a foreigner was not as easy as I thought. I had to go through many hardships, but the hardest was homesickness and family. This feeling tormented me, the thoughts didn't want to leave my head and I decided to release these emotions in my work.</t>
+          <t>Return explores the unraveling of a powerful woman after a political downfall. I'm drawn to layered characters and contradictions—especially women in power and how they’re judged differently than men. The film shifts tone and setting to reflect Patricie’s inner descent, using stylized visuals and dynamic camera work to mirror her instability, loneliness, and vulnerability. At its core, it’s about communication breakdown and the clash of ideals.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Jak vám mohu pomoci? [How can I help you?] (2022) - one episode from the eight-part Czech television animated series']</t>
+          <t>['Příspěvek na bydlení (Housing allowance), 2024 - director', "Muž, který nemohl spát (The man who couldn't sleep), 2023 - screenwriter", 'Rozloučení, 2023 - screenwriter', 'auto.au.rum (all.about.rum), 2022 - director and screenwriter']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>home.html</t>
+          <t>return.html</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Domov</t>
+          <t>Návrat</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Return</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Belarussian</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>English, Czech</t>
+          <t>English</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -2037,12 +2057,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Februrary 2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>00:05:45</t>
+          <t>00:24:48</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -2055,13 +2075,13 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>['animation', 'documentary', 'experimental']</t>
+          <t>['drama', 'psychological']</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>home, home sick, lyrical</t>
+          <t>local politician, bad day, woman in distress</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -2071,50 +2091,66 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>general audience</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Anastasiya Skarko</t>
+          <t>Lukáš Valíšek</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Anastasiya Skarko</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+          <t>Lukáš Valíšek</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Marcela Mencelová, Vojtěch Adalbert Dvořák</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Adéla Kelbichová</t>
+        </is>
+      </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Miroslav Chaloupka</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr"/>
+          <t>Jakub Jedlička</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Tereza Thérová, Lucie Pangrácová</t>
+        </is>
+      </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Yaraslau Dubashynski</t>
+          <t>Václav Chalupský</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Alena Štréblová (Tricia)', 'Alžběta Nováková (Laura)', 'Jindřiška Dudziaková (Veronika)', 'Jakub Jelínek (Marek)', 'Mikuláš Čížek (Andrej)']</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>05.09.1998</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>Anastasiya was born in Minsk, Belarus. Since 2018, she has worked as an art editor at the magazine of satire and humor "Vozhik". In 2020-2024 she studied animation at the Ladislav Sutnar Faculty of Design and Art at the University of West Bohemia in Pilsen.</t>
+          <t>Lukáš Valíšek is a screenwriting graduate and current directing student at FAMU. He has worked as a writer and script editor on numerous short films and is currently developing several feature-length projects. In his free time, he enjoys drawing and playing video games, and is passionate about experimenting with different forms of storytelling.</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>HDCAM</t>
+        </is>
+      </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
@@ -2123,31 +2159,31 @@
         </is>
       </c>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>2D</t>
-        </is>
-      </c>
+      <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>DCP</t>
+          <t>Apple ProRes</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>HD: 1920X1080</t>
+          <t>4k</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr"/>
@@ -2165,27 +2201,31 @@
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>Black &amp; White</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>University of West Bohemia</t>
+          <t>Barbora Podškubková</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>FAMU</t>
+        </is>
+      </c>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>MAUR FILM</t>
+          <t>Česká televize</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr"/>
@@ -2211,63 +2251,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A fallen minister and a naive dreamer are thrown together by chance. One surreal night forces them to face truth, ambition, and their deepest fears.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>A disgraced justice minister meets an ambitious young woman on a delayed train to Prague. Their unlikely bond deepens over one surreal night filled with hidden lovers, unexpected truths, and a drunken dance of reckoning, as both confront ambition, loneliness, and the need for connection.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Return explores the unraveling of a powerful woman after a political downfall. I'm drawn to layered characters and contradictions—especially women in power and how they’re judged differently than men. The film shifts tone and setting to reflect Patricie’s inner descent, using stylized visuals and dynamic camera work to mirror her instability, loneliness, and vulnerability. At its core, it’s about communication breakdown and the clash of ideals.</t>
-        </is>
-      </c>
+          <t>Edgar Allan Poe: Into the Mountains of Madness.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Příspěvek na bydlení (Housing allowance), 2024 - director', "Muž, který nemohl spát (The man who couldn't sleep), 2023 - screenwriter", 'Rozloučení, 2023 - screenwriter', 'auto.au.rum (all.about.rum), 2022 - director and screenwriter']</t>
+          <t>['Time Metallurgist (2024)', 'Místo (2020)', 'Vyčerpané Slunce [Exhausted sun] (2019)']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>return.html</t>
+          <t>snowblind.html</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Návrat</t>
+          <t>SnowBlind</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Return</t>
+          <t>SnowBlind</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Czech</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
+          <t>unintelligible language</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>00:24:48</t>
+          <t>00:08:53</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -2280,82 +2304,50 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>['drama', 'psychological']</t>
+          <t>['experimental']</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>local politician, bad day, woman in distress</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
+          <t>Edgar Alan Poe, Lovecraft</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek</t>
+          <t>Tomáš Rampula</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Marcela Mencelová, Vojtěch Adalbert Dvořák</t>
-        </is>
-      </c>
+          <t>Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Adéla Kelbichová</t>
+          <t>Tomáš Rampula</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Jakub Jedlička</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>Tereza Thérová, Lucie Pangrácová</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>Václav Chalupský</t>
-        </is>
-      </c>
+          <t>Alex Strapkova, Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>['Alena Štréblová (Tricia)', 'Alžběta Nováková (Laura)', 'Jindřiška Dudziaková (Veronika)', 'Jakub Jelínek (Marek)', 'Mikuláš Čížek (Andrej)']</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>Lukáš Valíšek is a screenwriting graduate and current directing student at FAMU. He has worked as a writer and script editor on numerous short films and is currently developing several feature-length projects. In his free time, he enjoys drawing and playing video games, and is passionate about experimenting with different forms of storytelling.</t>
-        </is>
-      </c>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>HDCAM</t>
-        </is>
-      </c>
+      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
@@ -2369,70 +2361,42 @@
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>Apple ProRes</t>
-        </is>
-      </c>
+      <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
+      <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr">
-        <is>
-          <t>1.78 (16:9)</t>
-        </is>
-      </c>
+      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
-        </is>
-      </c>
+      <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Black &amp; White</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>Barbora Podškubková</t>
-        </is>
-      </c>
+      <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>FAMU</t>
+          <t>Ochi&amp;Ushi</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr">
-        <is>
-          <t>Česká televize</t>
-        </is>
-      </c>
+      <c r="BS8" t="inlineStr"/>
       <c r="BT8" t="inlineStr"/>
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
@@ -2441,7 +2405,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+          <t>[{'Date': '13. 6. 2025', 'Country': 'Germany', 'Name_of_place_of_premiere': 'die Seriale - International Series Festival Giessen'}]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2456,47 +2420,55 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Edgar Allan Poe: Into the Mountains of Madness.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>In a cosmic contest to design life on a new planet, a visionary Evolution Manager and his sidekick face overwhelming odds in a battle of creation.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Soul Shift – a visually stunning and delightfully wacky animated series by Christian Franz Schmidt – follows Evolution Managers shaping life across the universe. When Dew Blue and Sunny-Yellow enter a cosmic contest, it spirals into a wild battle that tests not only their strategy, but their friendship too.</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Time Metallurgist (2024)', 'Místo (2020)', 'Vyčerpané Slunce [Exhausted sun] (2019)']</t>
+          <t>['The Zilla family has a picnic (2019)', 'A perfect day (2017)', "The most beautiful children's songs (2016) - web series", 'Durchfallmann - The rescue parachute (2015)', 'Rosi Romance (2015)', 'Durchfallmann - The chain carousel is out of control (2014)', 'A swan has a plan (2013)', 'Santa dares to go nuclear (2013)', 'Invageddon (2012) - web series', 'The claustro toad (2011)', 'Egg Nappers (2011)', 'The Christmas tree socialization project (2010)', 'Rome (2006)', 'The diarrhea man (2005)']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>snowblind.html</t>
+          <t>soul_ shift.html</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SnowBlind</t>
+          <t>Soul Shift</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>SnowBlind</t>
+          <t>Soul Shift</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>unintelligible language</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
+          <t>German, English</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>00:08:53</t>
+          <t>00:10:00</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -2509,48 +2481,64 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>['experimental']</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr"/>
+          <t>['animation', 'sci-fi', 'comedy']</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>comics</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Edgar Alan Poe, Lovecraft</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+          <t>evolution, universe, cosmic, fantasy</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Tomáš Rampula</t>
+          <t>Christian Franz Schmidt</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>Tomáš Rampula</t>
+          <t>Christian Franz Schmidt</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>Tomáš Rampula</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>Alex Strapkova, Tomáš Rampula</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Thomas Mehlhorn</t>
+        </is>
+      </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt studied animation at HFF Konrad Wolf Potsdam-Babelsberg. He was a pre-selection juror for the Stuttgart International Festival of Animated Film in 2013. From 2012–2019, he headed animation at a major media agency and has been working as a freelancer since 2012.</t>
+        </is>
+      </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
@@ -2571,11 +2559,7 @@
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
@@ -2583,25 +2567,29 @@
       <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>Black &amp; White</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>Thomas Schneider-Trumpp, Johann Frank, Wolfgang Heidrich</t>
+        </is>
+      </c>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr">
-        <is>
-          <t>Ochi&amp;Ushi</t>
-        </is>
-      </c>
+      <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>Hessischer Rundfunk</t>
+        </is>
+      </c>
       <c r="BT9" t="inlineStr"/>
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
@@ -2610,12 +2598,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[{'Date': '13. 6. 2025', 'Country': 'Germany', 'Name_of_place_of_premiere': 'die Seriale - International Series Festival Giessen'}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm (czech and world premiere)'}]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2625,39 +2613,43 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>In a cosmic contest to design life on a new planet, a visionary Evolution Manager and his sidekick face overwhelming odds in a battle of creation.</t>
+          <t>A giant beetroot goes on a rampage in this wild Slavic kaiju tale mixing live action, stop-motion, and 2D animation.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Soul Shift – a visually stunning and delightfully wacky animated series by Christian Franz Schmidt – follows Evolution Managers shaping life across the universe. When Dew Blue and Sunny-Yellow enter a cosmic contest, it spirals into a wild battle that tests not only their strategy, but their friendship too.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Inspired by the traditional Slavic folktale “The Enormous Turnip,” a beetroot grows so huge that no one can pull it from the ground. When a local crane operator is hired to do the job, the giant vegetable turns violent and destructive. As chaos unfolds, an army is mobilized to stop it — but maybe there’s another way to appease this monstrous force.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Beetroot is a collaboration between two directors from FAMU and UMPRUM, blending distinct authorial styles. Inspired by the classic Czech tale The Big Beetroot, we reimagine the beet as an uncontrollable force, merging fairy tale with the Japanese Kaiju genre. As the beet grows, so do the problems—nature's power takes monstrous form.</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['The Zilla family has a picnic (2019)', 'A perfect day (2017)', "The most beautiful children's songs (2016) - web series", 'Durchfallmann - The rescue parachute (2015)', 'Rosi Romance (2015)', 'Durchfallmann - The chain carousel is out of control (2014)', 'A swan has a plan (2013)', 'Santa dares to go nuclear (2013)', 'Invageddon (2012) - web series', 'The claustro toad (2011)', 'Egg Nappers (2011)', 'The Christmas tree socialization project (2010)', 'Rome (2006)', 'The diarrhea man (2005)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>soul_ shift.html</t>
+          <t>the_beetroot.html</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Soul Shift</t>
+          <t>Řepa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Soul Shift</t>
+          <t>The Beetroot</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>German, English</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2667,13 +2659,17 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>05.01.2025</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:12:56</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -2686,24 +2682,16 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>['animation', 'sci-fi', 'comedy']</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>comics</t>
-        </is>
-      </c>
+          <t>['animation', 'fairytale', 'sci-fi']</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>evolution, universe, cosmic, fantasy</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
+          <t>beetroot, fairytale, kaiju, enviroment</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>general audience</t>
@@ -2712,25 +2700,37 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
+          <t>Jáchym Štulíř, David Šourek</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
+          <t>Jáchym Štulíř, David Šourek</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>David Šourek</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Ondřej Plecháč</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Juras Karaka</t>
+        </is>
+      </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
+          <t>Jáchym Štulíř</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Thomas Mehlhorn</t>
+          <t>Juras Karaka</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2739,11 +2739,7 @@
         </is>
       </c>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>Christian Franz Schmidt studied animation at HFF Konrad Wolf Potsdam-Babelsberg. He was a pre-selection juror for the Stuttgart International Festival of Animated Film in 2013. From 2012–2019, he headed animation at a major media agency and has been working as a freelancer since 2012.</t>
-        </is>
-      </c>
+      <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
@@ -2753,22 +2749,58 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>mixing live action</t>
+        </is>
+      </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>ProRes, h264</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>2K</t>
+        </is>
+      </c>
       <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>1.33 (4:3)</t>
+        </is>
+      </c>
       <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
       <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr">
         <is>
@@ -2778,37 +2810,89 @@
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>Thomas Schneider-Trumpp, Johann Frank, Wolfgang Heidrich</t>
-        </is>
-      </c>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="inlineStr"/>
+          <t>FAMU</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>Smetanovo nábřeží 2</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>116 65 Prague 1</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>famu.cz</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>UMPRUM - Michaela Režová</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>nám. J. Palacha 80/3</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>116 93 Prague 1</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>umprum.cz</t>
+        </is>
+      </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>Hessischer Rundfunk</t>
-        </is>
-      </c>
-      <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
+          <t>Altum Frames - Hynek Spurný</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>Záhořanského 1944/4</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>120 00 Prague 2</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>altumframes.com</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm (czech and world premiere)'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}]</t>
+          <t>[{'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'Uppsala International Short Film Festival'}, {'Date': '', 'Country': 'Belgium', 'Name_of_Festival': 'Anima - the Brussels Animation Film Festival'}, {'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2818,50 +2902,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A giant beetroot goes on a rampage in this wild Slavic kaiju tale mixing live action, stop-motion, and 2D animation.</t>
+          <t>Can hedgehog swim?</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inspired by the traditional Slavic folktale “The Enormous Turnip,” a beetroot grows so huge that no one can pull it from the ground. When a local crane operator is hired to do the job, the giant vegetable turns violent and destructive. As chaos unfolds, an army is mobilized to stop it — but maybe there’s another way to appease this monstrous force.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Beetroot is a collaboration between two directors from FAMU and UMPRUM, blending distinct authorial styles. Inspired by the classic Czech tale The Big Beetroot, we reimagine the beet as an uncontrollable force, merging fairy tale with the Japanese Kaiju genre. As the beet grows, so do the problems—nature's power takes monstrous form.</t>
-        </is>
-      </c>
+          <t>Slightly moralising pun, filmed with pleasant exaggeration and a sense of animation shorthand. A child's imagination knows no bounds, and anyone who gets too carried away, whether drawing or just looking at a picture, can end up getting really wet. A hedgehog like that doesn't seem to be a very good swimmer, but he's all the more powerful.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Misophonia Orchestra (2022)', 'Kuku [Cuckoo](2020)', 'Medvědění [Bearing] (2018)', 'Závodní horečka [Racing Fever] (2017)', 'Nezbeda (2015)']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>the_beetroot.html</t>
+          <t>the_hedgehog.html</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Řepa</t>
+          <t>Ježek</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>The Beetroot</t>
+          <t>The Hedgehog</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Czech</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
+          <t>no dialogue</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>Czech Republic</t>
@@ -2869,12 +2945,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>05.01.2025</t>
+          <t>February 2023</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>00:12:56</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -2887,64 +2963,56 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>['animation', 'fairytale', 'sci-fi']</t>
+          <t>['animation', 'children', 'comedy']</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>beetroot, fairytale, kaiju, enviroment</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
+          <t>hedgehog, swimming pool, child's imagination</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>3+</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>general audience</t>
+          <t>family</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Jáchym Štulíř, David Šourek</t>
+          <t>Daniela Hýbnerová</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>Jáchym Štulíř, David Šourek</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>David Šourek</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>Ondřej Plecháč</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>Juras Karaka</t>
-        </is>
-      </c>
+          <t>Daniela Hýbnerová</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Jáchym Štulíř</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>Juras Karaka</t>
-        </is>
-      </c>
+          <t>Daniela Hýbnerová</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>Daniela Hýbnerová graduated from the Animation Department at FAMU in Prague. Her short animated film The One About the Shirt won 2nd place in the international round of the Nespresso Talents 2020 competition. Daniela is a fan of Formula 1 racing, film music and the world of Harry Potter.</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
@@ -2959,11 +3027,7 @@
           <t>2D computer</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>mixing live action</t>
-        </is>
-      </c>
+      <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr"/>
@@ -2975,29 +3039,25 @@
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>ProRes, h264</t>
+          <t>Prores, H264</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2K</t>
+          <t>HD: 1920X1080</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>1.33 (4:3)</t>
+          <t>1.78 (16:9)</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr"/>
@@ -3013,81 +3073,21 @@
         </is>
       </c>
       <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr">
-        <is>
-          <t>FAMU</t>
-        </is>
-      </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>Smetanovo nábřeží 2</t>
-        </is>
-      </c>
-      <c r="BK11" t="inlineStr">
-        <is>
-          <t>116 65 Prague 1</t>
-        </is>
-      </c>
-      <c r="BL11" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BM11" t="inlineStr">
-        <is>
-          <t>famu.cz</t>
-        </is>
-      </c>
-      <c r="BN11" t="inlineStr">
-        <is>
-          <t>UMPRUM - Michaela Režová</t>
-        </is>
-      </c>
-      <c r="BO11" t="inlineStr">
-        <is>
-          <t>nám. J. Palacha 80/3</t>
-        </is>
-      </c>
-      <c r="BP11" t="inlineStr">
-        <is>
-          <t>116 93 Prague 1</t>
-        </is>
-      </c>
-      <c r="BQ11" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BR11" t="inlineStr">
-        <is>
-          <t>umprum.cz</t>
-        </is>
-      </c>
-      <c r="BS11" t="inlineStr">
-        <is>
-          <t>Altum Frames - Hynek Spurný</t>
-        </is>
-      </c>
-      <c r="BT11" t="inlineStr">
-        <is>
-          <t>Záhořanského 1944/4</t>
-        </is>
-      </c>
-      <c r="BU11" t="inlineStr">
-        <is>
-          <t>120 00 Prague 2</t>
-        </is>
-      </c>
-      <c r="BV11" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BW11" t="inlineStr">
-        <is>
-          <t>altumframes.com</t>
-        </is>
-      </c>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">

--- a/extracted_data/all_html_data.xlsx
+++ b/extracted_data/all_html_data.xlsx
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>soul_ shift.html</t>
+          <t>soul_shift.html</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/extracted_data/all_html_data.xlsx
+++ b/extracted_data/all_html_data.xlsx
@@ -1043,54 +1043,58 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[{'Date': 'September 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[{'Date': '2024', 'Country': 'USA', 'Festival_Section_of_Competition': 'Student Academy Awards - Golden Medal'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>On New Year's Eve 1944, two Sudeten men—one a widower, the other an SS officer—confront a shared past in a snowbound cottage cut off from the world.</t>
+          <t>Two small-town policemen are first on the scene of a mass shooting — and must act fast with hostages still inside.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>On New Year’s Eve 1944, widower Petr Bernat and SS officer Konrad Neumann meet in a remote cottage during a snowstorm. United only by their Sudeten origins, their conversation shifts from trivial topics to painful truths, leading to a fateful night for both men.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>A routine day for two small-town policemen, young Pavel and experienced Michal, is turned upside down when they become the first patrol to arrive at the scene of a mass shooting at a restaurant with hostages still inside.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I drew inspiration for First Patrol from a 2015 tragedy in the South Moravian town of Uherský Brod, Czech Republic – the country’s first mass shooting. The title reflects both the officers’ arrival as the first patrol and Czech society’s first encounter with such violence. My intention was never a reconstruction, but a fictional immersive journey that places us in the patrol car and uniform of the first responders, who are both the earliest witnesses to such horrors and, above all, human beings.</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['• První hlídka / First Patrol (2025), 18 mins, police drama', '• Návštěvník / Visitor (2025), 20 mins, mysterious drama with horror elements', '• Cirkus / Cirque (2025), 5 mins, drama, 35mm colour film', '• Na kopci / On That Hill (2024), 3 mins, documentary portrait, 35mm black&amp;white film', '• Doprovázení / It Can Be Any Day (2023), 28 mins, family drama', 'Finalist for the Magnesia Award for Best Student Film of 2023', '• Růžička ve tmě / Rose in the Dark (2022), 10 mins, psychological drama, thriller', 'Panorama EnergaCAMERIMAGE 2022', '• Sen / Dream (2022), 5 mins, parable, 16mm colour film', '• 2-3 minuty / Two to Three Minutes (2021), 11 mins, drama', '• Konstruktér / The Constructor (2020), 8 mins, documentary portrait', '• Vyhnání / Expulsion (2019), 10 mins, historical drama, 16mm colour film', '• Kosmonaut / Cosmonaut (2019), 7 mins, children drama']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>compatriot.html</t>
+          <t>first_patrol.html</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Krajan</t>
+          <t>První hlídka</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>The Compatriot</t>
+          <t>First patrol</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Czech, German</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>English, Czech</t>
+          <t>English</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1100,12 +1104,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>01.01.2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>00:24:34</t>
+          <t>00:18:12</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -1118,77 +1122,97 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>['psychological', 'drama', 'historical', 'war']</t>
+          <t>['drama', 'crime', 'psychological']</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>WWII, second world war, Sudeten</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>general audience</t>
-        </is>
-      </c>
+          <t>first responders, police work, mass shooting, true crime</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Viktor Horák, Pavel Sýkora</t>
+          <t>Vojtěch Konečný</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Petr Pelech, Pavel Sýkora</t>
+          <t>Jan Dvořáček, Vojtěch Konečný</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Pavel Sýkora</t>
+          <t>Filip Hájek</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Lukáš Skalník</t>
+          <t>Enis Saraçi</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Yurii Fenynets</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr"/>
+          <t>Jan Strnad</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Anna Machátová</t>
+        </is>
+      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Jakub Zajíc</t>
+          <t>Tomáš Borl</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>['Jiří Štěpnička', 'Pavel Batěk', 'Martin Hlubocký']</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+          <t>['František Beleš', 'Pavel Řezníček']</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>03.07.1995</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Vojtěch Konečný is a Czech writer-director. He is finishing the MA film directing course at FAMU. He graduated from University of the Arts London, BA (Hons) Film and TV course. He is one of the founders of the film production company nukleon frame. His short film Rose in the Dark (2022) premiered at the 30th EnergaCAMERIMAGE IFF in Poland and his short movie It Can Be Any Day (2023) was the finalist for Magnesia Award at the film awards Czech Lions for Best Student Film of 2023.</t>
+        </is>
+      </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>Sony Venice, lenses: PANAVISION G SERIES ANAMORPHICS</t>
+        </is>
+      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>Adobe Premiere Pro</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Protools</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr">
@@ -1196,32 +1220,48 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>ProRes</t>
+        </is>
+      </c>
       <c r="AX3" t="inlineStr">
         <is>
           <t>4k</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>1.78 (16:9)</t>
-        </is>
-      </c>
-      <c r="BD3" t="inlineStr"/>
+          <t>2.00 (Netflix, Apple TV+, RED, Arri...)</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>DCP is S-200 (scope 2:1)</t>
+        </is>
+      </c>
       <c r="BE3" t="inlineStr">
         <is>
           <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>or stereo for screeners</t>
+        </is>
+      </c>
       <c r="BG3" t="inlineStr">
         <is>
           <t>Colour</t>
@@ -1230,35 +1270,43 @@
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>FAMO</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>Lipová alej 2068</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>397 01 Písek</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
+          <t>Adéla Konečná</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>nukleon frame</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>Davidkova 29</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>180 00, Prague 8</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>www.filmovka.cz</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>https://nukleonframe.cz/en/</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>FAMU, Czech Television, Lonely Production</t>
+        </is>
+      </c>
       <c r="BT3" t="inlineStr"/>
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
@@ -1267,7 +1315,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+          <t>[{'Date': '1.4.2025', 'Country': 'Argentina', 'Name_of_place_of_premiere': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1282,53 +1330,53 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Two small-town policemen are first on the scene of a mass shooting — and must act fast with hostages still inside.</t>
+          <t>In a world ruled by a mysterious telephone, power shifts from a distant force to the people themselves—revealing how the oppressed become oppressors.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A routine day for two small-town policemen, young Pavel and experienced Michal, is turned upside down when they become the first patrol to arrive at the scene of a mass shooting at a restaurant with hostages still inside.</t>
+          <t>Late at night in a shabby office, workers are stuck to the ceiling by their hats, blindly doing their jobs. Oblivious to the absurdity, they vanish one by one when an old phone rings. Only Hatker dares to face reality — turning their Kafkaesque world upside down.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>I drew inspiration for First Patrol from a 2015 tragedy in the South Moravian town of Uherský Brod, Czech Republic – the country’s first mass shooting. The title reflects both the officers’ arrival as the first patrol and Czech society’s first encounter with such violence. My intention was never a reconstruction, but a fictional immersive journey that places us in the patrol car and uniform of the first responders, who are both the earliest witnesses to such horrors and, above all, human beings.</t>
+          <t>Hatker explores the theme of power, symbolized by a telephone dictating behavior from afar. As the story unfolds, power proves decentralized—internalized and reproduced by individuals themselves. Inspired by my own experience in a corporate office, the film uses the metaphor of “hats” to represent the roles we adopt until the protagonist chooses to break free by taking his off.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['• První hlídka / First Patrol (2025), 18 mins, police drama', '• Návštěvník / Visitor (2025), 20 mins, mysterious drama with horror elements', '• Cirkus / Cirque (2025), 5 mins, drama, 35mm colour film', '• Na kopci / On That Hill (2024), 3 mins, documentary portrait, 35mm black&amp;white film', '• Doprovázení / It Can Be Any Day (2023), 28 mins, family drama', 'Finalist for the Magnesia Award for Best Student Film of 2023', '• Růžička ve tmě / Rose in the Dark (2022), 10 mins, psychological drama, thriller', 'Panorama EnergaCAMERIMAGE 2022', '• Sen / Dream (2022), 5 mins, parable, 16mm colour film', '• 2-3 minuty / Two to Three Minutes (2021), 11 mins, drama', '• Konstruktér / The Constructor (2020), 8 mins, documentary portrait', '• Vyhnání / Expulsion (2019), 10 mins, historical drama, 16mm colour film', '• Kosmonaut / Cosmonaut (2019), 7 mins, children drama']</t>
+          <t>['Epirenov, 2020', 'Hatker, 2025']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>first_patrol.html</t>
+          <t>hatker.html</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>První hlídka</t>
+          <t>Hatker</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>First patrol</t>
+          <t>Hatker</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Czech</t>
+          <t>Without dialogue</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1338,7 +1386,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>00:18:12</t>
+          <t>00:07:33</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -1351,13 +1399,13 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>['drama', 'crime', 'psychological']</t>
+          <t>['animation', 'absurd']</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>first responders, police work, mass shooting, true crime</t>
+          <t>hat, power, telephone, office, control, work, Kafka</t>
         </is>
       </c>
       <c r="X4" t="inlineStr"/>
@@ -1365,83 +1413,68 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Vojtěch Konečný</t>
+          <t>Alejandro Ariel Martin</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Jan Dvořáček, Vojtěch Konečný</t>
+          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Filip Hájek</t>
+          <t>Alejandro Ariel Martin</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Enis Saraçi</t>
+          <t>Alejandro Ariel Martin</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Jan Strnad</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>Anna Machátová</t>
-        </is>
-      </c>
+          <t>Santiago Zecca</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Tomáš Borl</t>
+          <t>Hermes Scipioni</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>['František Beleš', 'Pavel Řezníček']</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>03.07.1995</t>
-        </is>
-      </c>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>Vojtěch Konečný is a Czech writer-director. He is finishing the MA film directing course at FAMU. He graduated from University of the Arts London, BA (Hons) Film and TV course. He is one of the founders of the film production company nukleon frame. His short film Rose in the Dark (2022) premiered at the 30th EnergaCAMERIMAGE IFF in Poland and his short movie It Can Be Any Day (2023) was the finalist for Magnesia Award at the film awards Czech Lions for Best Student Film of 2023.</t>
+          <t>Alejandro Ariel Martin is an Argentinian Film Director. He has a degree in Social Communication from the UNR and a postgraduate degree in Creative Communication from the Autonomous University of Barcelona.
+He is the director and scriptwriter of the short film “Epirenov” (2020) and “Hatker” (2025).</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Sony</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>Sony Venice, lenses: PANAVISION G SERIES ANAMORPHICS</t>
-        </is>
-      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>DSLR/DSLM</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>puppet</t>
+        </is>
+      </c>
       <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>Adobe Premiere Pro</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>Protools</t>
-        </is>
-      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr">
@@ -1449,22 +1482,14 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>ProRes</t>
-        </is>
-      </c>
+      <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr">
         <is>
           <t>4k</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>24</t>
@@ -1473,24 +1498,16 @@
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2.00 (Netflix, Apple TV+, RED, Arri...)</t>
-        </is>
-      </c>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>DCP is S-200 (scope 2:1)</t>
-        </is>
-      </c>
+          <t>1.85 ("flat format")</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr">
         <is>
           <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>or stereo for screeners</t>
-        </is>
-      </c>
+      <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr">
         <is>
           <t>Colour</t>
@@ -1499,43 +1516,19 @@
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>Adéla Konečná</t>
+          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>nukleon frame</t>
-        </is>
-      </c>
-      <c r="BO4" t="inlineStr">
-        <is>
-          <t>Davidkova 29</t>
-        </is>
-      </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t>180 00, Prague 8</t>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BR4" t="inlineStr">
-        <is>
-          <t>https://nukleonframe.cz/en/</t>
-        </is>
-      </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>FAMU, Czech Television, Lonely Production</t>
-        </is>
-      </c>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
@@ -1544,12 +1537,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[{'Date': '1.4.2025', 'Country': 'Argentina', 'Name_of_place_of_premiere': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'May 2025', 'Country': 'Germany', 'Name_of_Festival': 'Neisse Film Festival'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1559,63 +1552,63 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>In a world ruled by a mysterious telephone, power shifts from a distant force to the people themselves—revealing how the oppressed become oppressors.</t>
+          <t>An auteur short animated documentary exploring the inner feelings of home. What does home mean to each of us?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Late at night in a shabby office, workers are stuck to the ceiling by their hats, blindly doing their jobs. Oblivious to the absurdity, they vanish one by one when an old phone rings. Only Hatker dares to face reality — turning their Kafkaesque world upside down.</t>
+          <t>An auteur film on the theme of inner feelings of home. What is home for each of us? Where is this place located? What is it connected to? Is home a specific place, or is home within us? A journey around the world in search of that "home" - the place where you feel you belong. Where you are safe and among your own.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hatker explores the theme of power, symbolized by a telephone dictating behavior from afar. As the story unfolds, power proves decentralized—internalized and reproduced by individuals themselves. Inspired by my own experience in a corporate office, the film uses the metaphor of “hats” to represent the roles we adopt until the protagonist chooses to break free by taking his off.</t>
+          <t>I really liked studying and living in the Czech Republic, but throughout my studies I kept thinking about my home, about my family that I left behind in Belarus. Being a foreigner was not as easy as I thought. I had to go through many hardships, but the hardest was homesickness and family. This feeling tormented me, the thoughts didn't want to leave my head and I decided to release these emotions in my work.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Epirenov, 2020', 'Hatker, 2025']</t>
+          <t>['Jak vám mohu pomoci? [How can I help you?] (2022) - one episode from the eight-part Czech television animated series']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>hatker.html</t>
+          <t>home.html</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Hatker</t>
+          <t>Domov</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hatker</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Without dialogue</t>
+          <t>Belarussian</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>English, Czech</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>Februrary 2025</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>00:07:33</t>
+          <t>00:05:45</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -1628,47 +1621,47 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>['animation', 'absurd']</t>
+          <t>['animation', 'documentary', 'experimental']</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>hat, power, telephone, office, control, work, Kafka</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+          <t>home, home sick, lyrical</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin</t>
+          <t>Anastasiya Skarko</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Alejandro Ariel Martin</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Alejandro Ariel Martin</t>
-        </is>
-      </c>
+          <t>Anastasiya Skarko</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Santiago Zecca</t>
+          <t>Miroslav Chaloupka</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Hermes Scipioni</t>
+          <t>Yaraslau Dubashynski</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1676,19 +1669,18 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>05.09.1998</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin is an Argentinian Film Director. He has a degree in Social Communication from the UNR and a postgraduate degree in Creative Communication from the Autonomous University of Barcelona.
-He is the director and scriptwriter of the short film “Epirenov” (2020) and “Hatker” (2025).</t>
+          <t>Anastasiya was born in Minsk, Belarus. Since 2018, she has worked as an art editor at the magazine of satire and humor "Vozhik". In 2020-2024 she studied animation at the Ladislav Sutnar Faculty of Design and Art at the University of West Bohemia in Pilsen.</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>DSLR/DSLM</t>
-        </is>
-      </c>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
@@ -1696,12 +1688,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>puppet</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>2D</t>
+        </is>
+      </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
@@ -1714,7 +1706,7 @@
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>4k</t>
+          <t>HD: 1920X1080</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1727,7 +1719,7 @@
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>1.85 ("flat format")</t>
+          <t>1.78 (16:9)</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr"/>
@@ -1739,13 +1731,13 @@
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Black &amp; White</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
+          <t>University of West Bohemia</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr"/>
@@ -1757,7 +1749,11 @@
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>MAUR FILM</t>
+        </is>
+      </c>
       <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
@@ -1771,7 +1767,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'May 2025', 'Country': 'Germany', 'Name_of_Festival': 'Neisse Film Festival'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1781,48 +1777,48 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>An auteur short animated documentary exploring the inner feelings of home. What does home mean to each of us?</t>
+          <t>A fallen minister and a naive dreamer are thrown together by chance. One surreal night forces them to face truth, ambition, and their deepest fears.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>An auteur film on the theme of inner feelings of home. What is home for each of us? Where is this place located? What is it connected to? Is home a specific place, or is home within us? A journey around the world in search of that "home" - the place where you feel you belong. Where you are safe and among your own.</t>
+          <t>A disgraced justice minister meets an ambitious young woman on a delayed train to Prague. Their unlikely bond deepens over one surreal night filled with hidden lovers, unexpected truths, and a drunken dance of reckoning, as both confront ambition, loneliness, and the need for connection.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>I really liked studying and living in the Czech Republic, but throughout my studies I kept thinking about my home, about my family that I left behind in Belarus. Being a foreigner was not as easy as I thought. I had to go through many hardships, but the hardest was homesickness and family. This feeling tormented me, the thoughts didn't want to leave my head and I decided to release these emotions in my work.</t>
+          <t>Return explores the unraveling of a powerful woman after a political downfall. I'm drawn to layered characters and contradictions—especially women in power and how they’re judged differently than men. The film shifts tone and setting to reflect Patricie’s inner descent, using stylized visuals and dynamic camera work to mirror her instability, loneliness, and vulnerability. At its core, it’s about communication breakdown and the clash of ideals.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Jak vám mohu pomoci? [How can I help you?] (2022) - one episode from the eight-part Czech television animated series']</t>
+          <t>['Příspěvek na bydlení (Housing allowance), 2024 - director', "Muž, který nemohl spát (The man who couldn't sleep), 2023 - screenwriter", 'Rozloučení, 2023 - screenwriter', 'auto.au.rum (all.about.rum), 2022 - director and screenwriter']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>home.html</t>
+          <t>return.html</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Domov</t>
+          <t>Návrat</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Return</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Belarussian</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>English, Czech</t>
+          <t>English</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1832,12 +1828,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Februrary 2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>00:05:45</t>
+          <t>00:24:48</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -1850,13 +1846,13 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>['animation', 'documentary', 'experimental']</t>
+          <t>['drama', 'psychological']</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>home, home sick, lyrical</t>
+          <t>local politician, bad day, woman in distress</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1866,50 +1862,66 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>general audience</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Anastasiya Skarko</t>
+          <t>Lukáš Valíšek</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>Anastasiya Skarko</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+          <t>Lukáš Valíšek</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Marcela Mencelová, Vojtěch Adalbert Dvořák</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Adéla Kelbichová</t>
+        </is>
+      </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Miroslav Chaloupka</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr"/>
+          <t>Jakub Jedlička</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Tereza Thérová, Lucie Pangrácová</t>
+        </is>
+      </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Yaraslau Dubashynski</t>
+          <t>Václav Chalupský</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Alena Štréblová (Tricia)', 'Alžběta Nováková (Laura)', 'Jindřiška Dudziaková (Veronika)', 'Jakub Jelínek (Marek)', 'Mikuláš Čížek (Andrej)']</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>05.09.1998</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>Anastasiya was born in Minsk, Belarus. Since 2018, she has worked as an art editor at the magazine of satire and humor "Vozhik". In 2020-2024 she studied animation at the Ladislav Sutnar Faculty of Design and Art at the University of West Bohemia in Pilsen.</t>
+          <t>Lukáš Valíšek is a screenwriting graduate and current directing student at FAMU. He has worked as a writer and script editor on numerous short films and is currently developing several feature-length projects. In his free time, he enjoys drawing and playing video games, and is passionate about experimenting with different forms of storytelling.</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>HDCAM</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
@@ -1918,31 +1930,31 @@
         </is>
       </c>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>2D</t>
-        </is>
-      </c>
+      <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>DCP</t>
+          <t>Apple ProRes</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>HD: 1920X1080</t>
+          <t>4k</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr"/>
@@ -1960,27 +1972,31 @@
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>Black &amp; White</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>University of West Bohemia</t>
+          <t>Barbora Podškubková</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>FAMU</t>
+        </is>
+      </c>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>MAUR FILM</t>
+          <t>Česká televize</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr"/>
@@ -2006,63 +2022,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A fallen minister and a naive dreamer are thrown together by chance. One surreal night forces them to face truth, ambition, and their deepest fears.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>A disgraced justice minister meets an ambitious young woman on a delayed train to Prague. Their unlikely bond deepens over one surreal night filled with hidden lovers, unexpected truths, and a drunken dance of reckoning, as both confront ambition, loneliness, and the need for connection.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Return explores the unraveling of a powerful woman after a political downfall. I'm drawn to layered characters and contradictions—especially women in power and how they’re judged differently than men. The film shifts tone and setting to reflect Patricie’s inner descent, using stylized visuals and dynamic camera work to mirror her instability, loneliness, and vulnerability. At its core, it’s about communication breakdown and the clash of ideals.</t>
-        </is>
-      </c>
+          <t>Edgar Allan Poe: Into the Mountains of Madness.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Příspěvek na bydlení (Housing allowance), 2024 - director', "Muž, který nemohl spát (The man who couldn't sleep), 2023 - screenwriter", 'Rozloučení, 2023 - screenwriter', 'auto.au.rum (all.about.rum), 2022 - director and screenwriter']</t>
+          <t>['Time Metallurgist (2024)', 'Místo (2020)', 'Vyčerpané Slunce [Exhausted sun] (2019)']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>return.html</t>
+          <t>snowblind.html</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Návrat</t>
+          <t>SnowBlind</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Return</t>
+          <t>SnowBlind</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Czech</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
+          <t>unintelligible language</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>00:24:48</t>
+          <t>00:08:53</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -2075,82 +2075,50 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>['drama', 'psychological']</t>
+          <t>['experimental']</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>local politician, bad day, woman in distress</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
+          <t>Edgar Alan Poe, Lovecraft</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek</t>
+          <t>Tomáš Rampula</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Marcela Mencelová, Vojtěch Adalbert Dvořák</t>
-        </is>
-      </c>
+          <t>Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Adéla Kelbichová</t>
+          <t>Tomáš Rampula</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Jakub Jedlička</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>Tereza Thérová, Lucie Pangrácová</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>Václav Chalupský</t>
-        </is>
-      </c>
+          <t>Alex Strapkova, Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>['Alena Štréblová (Tricia)', 'Alžběta Nováková (Laura)', 'Jindřiška Dudziaková (Veronika)', 'Jakub Jelínek (Marek)', 'Mikuláš Čížek (Andrej)']</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>Lukáš Valíšek is a screenwriting graduate and current directing student at FAMU. He has worked as a writer and script editor on numerous short films and is currently developing several feature-length projects. In his free time, he enjoys drawing and playing video games, and is passionate about experimenting with different forms of storytelling.</t>
-        </is>
-      </c>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>HDCAM</t>
-        </is>
-      </c>
+      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
@@ -2164,70 +2132,42 @@
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>Apple ProRes</t>
-        </is>
-      </c>
+      <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
+      <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>1.78 (16:9)</t>
-        </is>
-      </c>
+      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
-        </is>
-      </c>
+      <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Black &amp; White</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>Barbora Podškubková</t>
-        </is>
-      </c>
+      <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>FAMU</t>
+          <t>Ochi&amp;Ushi</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr">
-        <is>
-          <t>Česká televize</t>
-        </is>
-      </c>
+      <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
@@ -2236,7 +2176,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+          <t>[{'Date': '13. 6. 2025', 'Country': 'Germany', 'Name_of_place_of_premiere': 'die Seriale - International Series Festival Giessen'}]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2251,47 +2191,55 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Edgar Allan Poe: Into the Mountains of Madness.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>In a cosmic contest to design life on a new planet, a visionary Evolution Manager and his sidekick face overwhelming odds in a battle of creation.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Soul Shift – a visually stunning and delightfully wacky animated series by Christian Franz Schmidt – follows Evolution Managers shaping life across the universe. When Dew Blue and Sunny-Yellow enter a cosmic contest, it spirals into a wild battle that tests not only their strategy, but their friendship too.</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Time Metallurgist (2024)', 'Místo (2020)', 'Vyčerpané Slunce [Exhausted sun] (2019)']</t>
+          <t>['The Zilla family has a picnic (2019)', 'A perfect day (2017)', "The most beautiful children's songs (2016) - web series", 'Durchfallmann - The rescue parachute (2015)', 'Rosi Romance (2015)', 'Durchfallmann - The chain carousel is out of control (2014)', 'A swan has a plan (2013)', 'Santa dares to go nuclear (2013)', 'Invageddon (2012) - web series', 'The claustro toad (2011)', 'Egg Nappers (2011)', 'The Christmas tree socialization project (2010)', 'Rome (2006)', 'The diarrhea man (2005)']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>snowblind.html</t>
+          <t>soul_shift.html</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SnowBlind</t>
+          <t>Soul Shift</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>SnowBlind</t>
+          <t>Soul Shift</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>unintelligible language</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
+          <t>German, English</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>00:08:53</t>
+          <t>00:10:00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -2304,48 +2252,64 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>['experimental']</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
+          <t>['animation', 'sci-fi', 'comedy']</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>comics</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Edgar Alan Poe, Lovecraft</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+          <t>evolution, universe, cosmic, fantasy</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Tomáš Rampula</t>
+          <t>Christian Franz Schmidt</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Tomáš Rampula</t>
+          <t>Christian Franz Schmidt</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Tomáš Rampula</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>Alex Strapkova, Tomáš Rampula</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Thomas Mehlhorn</t>
+        </is>
+      </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt studied animation at HFF Konrad Wolf Potsdam-Babelsberg. He was a pre-selection juror for the Stuttgart International Festival of Animated Film in 2013. From 2012–2019, he headed animation at a major media agency and has been working as a freelancer since 2012.</t>
+        </is>
+      </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
@@ -2366,11 +2330,7 @@
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr"/>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -2378,25 +2338,29 @@
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>Black &amp; White</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>Thomas Schneider-Trumpp, Johann Frank, Wolfgang Heidrich</t>
+        </is>
+      </c>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr">
-        <is>
-          <t>Ochi&amp;Ushi</t>
-        </is>
-      </c>
+      <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>Hessischer Rundfunk</t>
+        </is>
+      </c>
       <c r="BT8" t="inlineStr"/>
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
@@ -2405,12 +2369,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[{'Date': '13. 6. 2025', 'Country': 'Germany', 'Name_of_place_of_premiere': 'die Seriale - International Series Festival Giessen'}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm (czech and world premiere)'}]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2420,39 +2384,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>In a cosmic contest to design life on a new planet, a visionary Evolution Manager and his sidekick face overwhelming odds in a battle of creation.</t>
+          <t>A giant beetroot goes on a rampage in this wild Slavic kaiju tale mixing live action, stop-motion, and 2D animation.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Soul Shift – a visually stunning and delightfully wacky animated series by Christian Franz Schmidt – follows Evolution Managers shaping life across the universe. When Dew Blue and Sunny-Yellow enter a cosmic contest, it spirals into a wild battle that tests not only their strategy, but their friendship too.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Inspired by the traditional Slavic folktale “The Enormous Turnip,” a beetroot grows so huge that no one can pull it from the ground. When a local crane operator is hired to do the job, the giant vegetable turns violent and destructive. As chaos unfolds, an army is mobilized to stop it — but maybe there’s another way to appease this monstrous force.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Beetroot is a collaboration between two directors from FAMU and UMPRUM, blending distinct authorial styles. Inspired by the classic Czech tale The Big Beetroot, we reimagine the beet as an uncontrollable force, merging fairy tale with the Japanese Kaiju genre. As the beet grows, so do the problems—nature's power takes monstrous form.</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['The Zilla family has a picnic (2019)', 'A perfect day (2017)', "The most beautiful children's songs (2016) - web series", 'Durchfallmann - The rescue parachute (2015)', 'Rosi Romance (2015)', 'Durchfallmann - The chain carousel is out of control (2014)', 'A swan has a plan (2013)', 'Santa dares to go nuclear (2013)', 'Invageddon (2012) - web series', 'The claustro toad (2011)', 'Egg Nappers (2011)', 'The Christmas tree socialization project (2010)', 'Rome (2006)', 'The diarrhea man (2005)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>soul_shift.html</t>
+          <t>the_beetroot.html</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Soul Shift</t>
+          <t>Řepa</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Soul Shift</t>
+          <t>The Beetroot</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>German, English</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2462,13 +2430,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>05.01.2025</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:12:56</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -2481,24 +2453,16 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>['animation', 'sci-fi', 'comedy']</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>comics</t>
-        </is>
-      </c>
+          <t>['animation', 'fairytale', 'sci-fi']</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>evolution, universe, cosmic, fantasy</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
+          <t>beetroot, fairytale, kaiju, enviroment</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>general audience</t>
@@ -2507,25 +2471,37 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
+          <t>Jáchym Štulíř, David Šourek</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
+          <t>Jáchym Štulíř, David Šourek</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>David Šourek</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Ondřej Plecháč</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Juras Karaka</t>
+        </is>
+      </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
+          <t>Jáchym Štulíř</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Thomas Mehlhorn</t>
+          <t>Juras Karaka</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2534,11 +2510,7 @@
         </is>
       </c>
       <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>Christian Franz Schmidt studied animation at HFF Konrad Wolf Potsdam-Babelsberg. He was a pre-selection juror for the Stuttgart International Festival of Animated Film in 2013. From 2012–2019, he headed animation at a major media agency and has been working as a freelancer since 2012.</t>
-        </is>
-      </c>
+      <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
@@ -2548,22 +2520,58 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>mixing live action</t>
+        </is>
+      </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>ProRes, h264</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>2K</t>
+        </is>
+      </c>
       <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>1.33 (4:3)</t>
+        </is>
+      </c>
       <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
       <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr">
         <is>
@@ -2573,59 +2581,107 @@
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>Thomas Schneider-Trumpp, Johann Frank, Wolfgang Heidrich</t>
-        </is>
-      </c>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
+          <t>FAMU</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>Smetanovo nábřeží 2</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>116 65 Prague 1</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>famu.cz</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>UMPRUM - Michaela Režová</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>nám. J. Palacha 80/3</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>116 93 Prague 1</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>umprum.cz</t>
+        </is>
+      </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>Hessischer Rundfunk</t>
-        </is>
-      </c>
-      <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
+          <t>Altum Frames - Hynek Spurný</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>Záhořanského 1944/4</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>120 00 Prague 2</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>altumframes.com</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm (czech and world premiere)'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}]</t>
+          <t>[{'Date': 'September 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+          <t>[{'Date': '2024', 'Country': 'USA', 'Festival_Section_of_Competition': 'Student Academy Awards - Golden Medal'}]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A giant beetroot goes on a rampage in this wild Slavic kaiju tale mixing live action, stop-motion, and 2D animation.</t>
+          <t>On New Year's Eve 1944, two Sudeten men—one a widower, the other an SS officer—confront a shared past in a snowbound cottage cut off from the world.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inspired by the traditional Slavic folktale “The Enormous Turnip,” a beetroot grows so huge that no one can pull it from the ground. When a local crane operator is hired to do the job, the giant vegetable turns violent and destructive. As chaos unfolds, an army is mobilized to stop it — but maybe there’s another way to appease this monstrous force.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Beetroot is a collaboration between two directors from FAMU and UMPRUM, blending distinct authorial styles. Inspired by the classic Czech tale The Big Beetroot, we reimagine the beet as an uncontrollable force, merging fairy tale with the Japanese Kaiju genre. As the beet grows, so do the problems—nature's power takes monstrous form.</t>
-        </is>
-      </c>
+          <t>On New Year’s Eve 1944, widower Petr Bernat and SS officer Konrad Neumann meet in a remote cottage during a snowstorm. United only by their Sudeten origins, their conversation shifts from trivial topics to painful truths, leading to a fateful night for both men.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2633,28 +2689,28 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>the_beetroot.html</t>
+          <t>the_compatriot.html</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Řepa</t>
+          <t>Krajan</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>The Beetroot</t>
+          <t>The Compatriot</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Czech</t>
+          <t>Czech, German</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>English, Czech</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2664,12 +2720,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>05.01.2025</t>
+          <t>01.01.2023</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>00:12:56</t>
+          <t>00:24:34</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -2682,16 +2738,20 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>['animation', 'fairytale', 'sci-fi']</t>
+          <t>['psychological', 'drama', 'historical', 'war']</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>beetroot, fairytale, kaiju, enviroment</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
+          <t>WWII, second world war, Sudeten</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>general audience</t>
@@ -2700,42 +2760,38 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Jáchym Štulíř, David Šourek</t>
+          <t>Viktor Horák, Pavel Sýkora</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>Jáchym Štulíř, David Šourek</t>
+          <t>Petr Pelech, Pavel Sýkora</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>David Šourek</t>
+          <t>Pavel Sýkora</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Ondřej Plecháč</t>
+          <t>Lukáš Skalník</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Juras Karaka</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>Jáchym Štulíř</t>
-        </is>
-      </c>
+          <t>Yurii Fenynets</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Juras Karaka</t>
+          <t>Jakub Zajíc</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Jiří Štěpnička', 'Pavel Batěk', 'Martin Hlubocký']</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr"/>
@@ -2749,16 +2805,8 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>2D computer</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>mixing live action</t>
-        </is>
-      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
@@ -2768,22 +2816,14 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>ProRes, h264</t>
-        </is>
-      </c>
+      <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>2K</t>
+          <t>4k</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr">
         <is>
           <t>25</t>
@@ -2792,7 +2832,7 @@
       <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>1.33 (4:3)</t>
+          <t>1.78 (16:9)</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr"/>
@@ -2810,17 +2850,17 @@
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>FAMU</t>
+          <t>FAMO</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>Smetanovo nábřeží 2</t>
+          <t>Lipová alej 2068</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
         <is>
-          <t>116 65 Prague 1</t>
+          <t>397 01 Písek</t>
         </is>
       </c>
       <c r="BL10" t="inlineStr">
@@ -2830,59 +2870,19 @@
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>famu.cz</t>
-        </is>
-      </c>
-      <c r="BN10" t="inlineStr">
-        <is>
-          <t>UMPRUM - Michaela Režová</t>
-        </is>
-      </c>
-      <c r="BO10" t="inlineStr">
-        <is>
-          <t>nám. J. Palacha 80/3</t>
-        </is>
-      </c>
-      <c r="BP10" t="inlineStr">
-        <is>
-          <t>116 93 Prague 1</t>
-        </is>
-      </c>
-      <c r="BQ10" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BR10" t="inlineStr">
-        <is>
-          <t>umprum.cz</t>
-        </is>
-      </c>
-      <c r="BS10" t="inlineStr">
-        <is>
-          <t>Altum Frames - Hynek Spurný</t>
-        </is>
-      </c>
-      <c r="BT10" t="inlineStr">
-        <is>
-          <t>Záhořanského 1944/4</t>
-        </is>
-      </c>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>120 00 Prague 2</t>
-        </is>
-      </c>
-      <c r="BV10" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BW10" t="inlineStr">
-        <is>
-          <t>altumframes.com</t>
-        </is>
-      </c>
+          <t>www.filmovka.cz</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
